--- a/BackTest/2019-11-20 BackTest PPT.xlsx
+++ b/BackTest/2019-11-20 BackTest PPT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M117"/>
+  <dimension ref="A1:N117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -448,7 +453,7 @@
         <v>2390.831</v>
       </c>
       <c r="G2" t="n">
-        <v>-526085.1756</v>
+        <v>577.5</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -483,7 +489,7 @@
         <v>729.4948000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>-525355.6808</v>
+        <v>587.5</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,7 +525,7 @@
         <v>2228.2933</v>
       </c>
       <c r="G4" t="n">
-        <v>-527583.9741</v>
+        <v>589.5</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -553,7 +561,7 @@
         <v>1453.171</v>
       </c>
       <c r="G5" t="n">
-        <v>-526130.8031</v>
+        <v>583.5</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -588,7 +597,7 @@
         <v>1188.3307</v>
       </c>
       <c r="G6" t="n">
-        <v>-524942.4724</v>
+        <v>590.5</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -623,7 +633,7 @@
         <v>2.5</v>
       </c>
       <c r="G7" t="n">
-        <v>-524944.9724</v>
+        <v>593</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -658,7 +669,7 @@
         <v>125.5</v>
       </c>
       <c r="G8" t="n">
-        <v>-525070.4724</v>
+        <v>591.5</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -693,7 +705,7 @@
         <v>566.9016</v>
       </c>
       <c r="G9" t="n">
-        <v>-524503.5708</v>
+        <v>595.5</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -728,7 +741,7 @@
         <v>558.0134</v>
       </c>
       <c r="G10" t="n">
-        <v>-523945.5574</v>
+        <v>605.5</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -763,7 +777,7 @@
         <v>2825.3711</v>
       </c>
       <c r="G11" t="n">
-        <v>-526770.9285</v>
+        <v>606.5</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,6 +791,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -798,7 +813,7 @@
         <v>1373.473</v>
       </c>
       <c r="G12" t="n">
-        <v>-525397.4555</v>
+        <v>605.5</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -833,7 +849,7 @@
         <v>1327.8132</v>
       </c>
       <c r="G13" t="n">
-        <v>-524069.6423000001</v>
+        <v>611.5</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,6 +863,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -868,7 +885,7 @@
         <v>971.1497000000001</v>
       </c>
       <c r="G14" t="n">
-        <v>-525040.792</v>
+        <v>611</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,6 +899,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -903,7 +921,7 @@
         <v>1893.2283</v>
       </c>
       <c r="G15" t="n">
-        <v>-523147.5637</v>
+        <v>609</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,6 +935,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -938,7 +957,7 @@
         <v>1628.5805</v>
       </c>
       <c r="G16" t="n">
-        <v>-523147.5637</v>
+        <v>610</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,6 +971,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -973,7 +993,7 @@
         <v>3295.4125</v>
       </c>
       <c r="G17" t="n">
-        <v>-519852.1512</v>
+        <v>611.5</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,6 +1007,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1008,7 +1029,7 @@
         <v>2308.824</v>
       </c>
       <c r="G18" t="n">
-        <v>-522160.9752</v>
+        <v>611.5</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,6 +1043,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1043,7 +1065,7 @@
         <v>1489.89</v>
       </c>
       <c r="G19" t="n">
-        <v>-522160.9752</v>
+        <v>610</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,6 +1079,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1078,7 +1101,7 @@
         <v>395.8689</v>
       </c>
       <c r="G20" t="n">
-        <v>-522556.8441</v>
+        <v>609</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,6 +1115,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1113,7 +1137,7 @@
         <v>100</v>
       </c>
       <c r="G21" t="n">
-        <v>-522656.8441</v>
+        <v>606.5</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1127,6 +1151,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1148,7 +1173,7 @@
         <v>1413.0843</v>
       </c>
       <c r="G22" t="n">
-        <v>-524069.9284</v>
+        <v>597</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1162,6 +1187,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1183,7 +1209,7 @@
         <v>679.3849</v>
       </c>
       <c r="G23" t="n">
-        <v>-523390.5435</v>
+        <v>595.5</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1197,6 +1223,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1218,7 +1245,7 @@
         <v>51.353</v>
       </c>
       <c r="G24" t="n">
-        <v>-523441.8965</v>
+        <v>601</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1232,6 +1259,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1253,7 +1281,7 @@
         <v>277.1649</v>
       </c>
       <c r="G25" t="n">
-        <v>-523719.0614</v>
+        <v>596.5</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1267,6 +1295,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1288,7 +1317,7 @@
         <v>833.063</v>
       </c>
       <c r="G26" t="n">
-        <v>-522885.9984</v>
+        <v>595</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1302,6 +1331,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1323,7 +1353,7 @@
         <v>214</v>
       </c>
       <c r="G27" t="n">
-        <v>-523099.9984</v>
+        <v>596</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1337,6 +1367,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1358,7 +1389,7 @@
         <v>250.6332</v>
       </c>
       <c r="G28" t="n">
-        <v>-522849.3652</v>
+        <v>595.5</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1372,6 +1403,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1393,7 +1425,7 @@
         <v>185.4</v>
       </c>
       <c r="G29" t="n">
-        <v>-522849.3652</v>
+        <v>596</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1407,6 +1439,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1428,7 +1461,7 @@
         <v>273.134</v>
       </c>
       <c r="G30" t="n">
-        <v>-523122.4992</v>
+        <v>595.5</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1442,6 +1475,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1463,7 +1497,7 @@
         <v>415.2</v>
       </c>
       <c r="G31" t="n">
-        <v>-522707.2992</v>
+        <v>598</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1477,6 +1511,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1498,7 +1533,7 @@
         <v>1677.4283</v>
       </c>
       <c r="G32" t="n">
-        <v>-521029.8709</v>
+        <v>602</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1512,6 +1547,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1533,7 +1569,7 @@
         <v>364.6511</v>
       </c>
       <c r="G33" t="n">
-        <v>-520665.2198</v>
+        <v>604.5</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1547,6 +1583,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1568,7 +1605,7 @@
         <v>695.9967</v>
       </c>
       <c r="G34" t="n">
-        <v>-521361.2165</v>
+        <v>602</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1582,6 +1619,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1603,7 +1641,7 @@
         <v>962.0104</v>
       </c>
       <c r="G35" t="n">
-        <v>-520399.2061</v>
+        <v>598.5</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1617,6 +1655,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1638,7 +1677,7 @@
         <v>279.3787</v>
       </c>
       <c r="G36" t="n">
-        <v>-520678.5848</v>
+        <v>598.5</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1652,6 +1691,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1673,7 +1713,7 @@
         <v>50.1033</v>
       </c>
       <c r="G37" t="n">
-        <v>-520728.6881</v>
+        <v>597.5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1687,6 +1727,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1708,7 +1749,7 @@
         <v>344.5552</v>
       </c>
       <c r="G38" t="n">
-        <v>-521073.2433</v>
+        <v>596.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1722,6 +1763,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1743,7 +1785,7 @@
         <v>783.1833</v>
       </c>
       <c r="G39" t="n">
-        <v>-521073.2433</v>
+        <v>596</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1757,6 +1799,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1778,7 +1821,7 @@
         <v>178.6078</v>
       </c>
       <c r="G40" t="n">
-        <v>-521073.2433</v>
+        <v>596</v>
       </c>
       <c r="H40" t="n">
         <v>1</v>
@@ -1796,6 +1839,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1817,7 +1861,7 @@
         <v>244.6044</v>
       </c>
       <c r="G41" t="n">
-        <v>-521073.2433</v>
+        <v>596</v>
       </c>
       <c r="H41" t="n">
         <v>1</v>
@@ -1839,6 +1883,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1860,7 +1905,7 @@
         <v>203.6836</v>
       </c>
       <c r="G42" t="n">
-        <v>-521073.2433</v>
+        <v>596</v>
       </c>
       <c r="H42" t="n">
         <v>1</v>
@@ -1882,6 +1927,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1903,24 +1949,21 @@
         <v>572.83</v>
       </c>
       <c r="G43" t="n">
-        <v>-520500.4133</v>
+        <v>597</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>596</v>
-      </c>
-      <c r="K43" t="n">
-        <v>596</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1942,7 +1985,7 @@
         <v>307</v>
       </c>
       <c r="G44" t="n">
-        <v>-520193.4133</v>
+        <v>599</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1951,17 +1994,12 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>596</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1983,7 +2021,7 @@
         <v>307</v>
       </c>
       <c r="G45" t="n">
-        <v>-520500.4133</v>
+        <v>599</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1992,17 +2030,12 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>596</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2024,7 +2057,7 @@
         <v>2109.7314</v>
       </c>
       <c r="G46" t="n">
-        <v>-522610.1446999999</v>
+        <v>594.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2038,6 +2071,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2059,7 +2093,7 @@
         <v>1819.8922</v>
       </c>
       <c r="G47" t="n">
-        <v>-520790.2524999999</v>
+        <v>592.5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2073,6 +2107,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2094,7 +2129,7 @@
         <v>893.1503</v>
       </c>
       <c r="G48" t="n">
-        <v>-520790.2524999999</v>
+        <v>594</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2108,6 +2143,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2129,7 +2165,7 @@
         <v>2153.7363</v>
       </c>
       <c r="G49" t="n">
-        <v>-518636.5162</v>
+        <v>594.5</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2143,6 +2179,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2164,7 +2201,7 @@
         <v>1177.0437</v>
       </c>
       <c r="G50" t="n">
-        <v>-519813.5598999999</v>
+        <v>593</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2178,6 +2215,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2199,7 +2237,7 @@
         <v>269</v>
       </c>
       <c r="G51" t="n">
-        <v>-519544.5598999999</v>
+        <v>593.5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2213,6 +2251,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2234,7 +2273,7 @@
         <v>2870.72547093</v>
       </c>
       <c r="G52" t="n">
-        <v>-516673.8344290699</v>
+        <v>602.5</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2248,6 +2287,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2269,7 +2309,7 @@
         <v>308.8</v>
       </c>
       <c r="G53" t="n">
-        <v>-516982.6344290699</v>
+        <v>605</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2283,6 +2323,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2304,7 +2345,7 @@
         <v>67.3819</v>
       </c>
       <c r="G54" t="n">
-        <v>-517050.0163290699</v>
+        <v>599.5</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2318,6 +2359,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2339,7 +2381,7 @@
         <v>336.1544</v>
       </c>
       <c r="G55" t="n">
-        <v>-516713.8619290699</v>
+        <v>599</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2353,6 +2395,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2374,7 +2417,7 @@
         <v>712.3364</v>
       </c>
       <c r="G56" t="n">
-        <v>-517426.1983290699</v>
+        <v>599</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2388,6 +2431,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2409,7 +2453,7 @@
         <v>611.1716</v>
       </c>
       <c r="G57" t="n">
-        <v>-518037.3699290699</v>
+        <v>597.5</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2423,6 +2467,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2444,7 +2489,7 @@
         <v>275.0173</v>
       </c>
       <c r="G58" t="n">
-        <v>-518037.3699290699</v>
+        <v>597</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2458,6 +2503,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2479,7 +2525,7 @@
         <v>1110.183</v>
       </c>
       <c r="G59" t="n">
-        <v>-516927.1869290699</v>
+        <v>599.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2493,6 +2539,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2514,7 +2561,7 @@
         <v>117</v>
       </c>
       <c r="G60" t="n">
-        <v>-517044.1869290699</v>
+        <v>599.5</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2528,6 +2575,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2549,7 +2597,7 @@
         <v>94</v>
       </c>
       <c r="G61" t="n">
-        <v>-516950.1869290699</v>
+        <v>598</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2563,6 +2611,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2584,7 +2633,7 @@
         <v>1123.5067</v>
       </c>
       <c r="G62" t="n">
-        <v>-516950.1869290699</v>
+        <v>599</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2598,6 +2647,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2619,7 +2669,7 @@
         <v>1469.5068</v>
       </c>
       <c r="G63" t="n">
-        <v>-518419.6937290698</v>
+        <v>598</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2633,6 +2683,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2654,7 +2705,7 @@
         <v>63</v>
       </c>
       <c r="G64" t="n">
-        <v>-518419.6937290698</v>
+        <v>597</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2668,6 +2719,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2689,7 +2741,7 @@
         <v>930.183</v>
       </c>
       <c r="G65" t="n">
-        <v>-518419.6937290698</v>
+        <v>597</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2703,6 +2755,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2724,7 +2777,7 @@
         <v>170.5799</v>
       </c>
       <c r="G66" t="n">
-        <v>-518590.2736290699</v>
+        <v>596</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2738,6 +2791,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2759,7 +2813,7 @@
         <v>715.9999</v>
       </c>
       <c r="G67" t="n">
-        <v>-517874.2737290699</v>
+        <v>596.5</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2773,6 +2827,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2794,7 +2849,7 @@
         <v>508.7599</v>
       </c>
       <c r="G68" t="n">
-        <v>-517874.2737290699</v>
+        <v>598</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2808,6 +2863,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2829,7 +2885,7 @@
         <v>63</v>
       </c>
       <c r="G69" t="n">
-        <v>-517937.2737290699</v>
+        <v>597</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2843,6 +2899,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2864,7 +2921,7 @@
         <v>217.0562</v>
       </c>
       <c r="G70" t="n">
-        <v>-518154.3299290698</v>
+        <v>595.5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2878,6 +2935,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2899,7 +2957,7 @@
         <v>93.12130000000001</v>
       </c>
       <c r="G71" t="n">
-        <v>-518061.2086290698</v>
+        <v>595.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2913,6 +2971,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2934,7 +2993,7 @@
         <v>333.0231</v>
       </c>
       <c r="G72" t="n">
-        <v>-517728.1855290699</v>
+        <v>597</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2948,6 +3007,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2969,7 +3029,7 @@
         <v>199</v>
       </c>
       <c r="G73" t="n">
-        <v>-517927.1855290699</v>
+        <v>597.5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2983,6 +3043,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3004,7 +3065,7 @@
         <v>7194.1481</v>
       </c>
       <c r="G74" t="n">
-        <v>-510733.0374290699</v>
+        <v>602</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3018,6 +3079,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3039,7 +3101,7 @@
         <v>2524.81</v>
       </c>
       <c r="G75" t="n">
-        <v>-508208.2274290699</v>
+        <v>613</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3053,6 +3115,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3074,13 +3137,13 @@
         <v>205.9165</v>
       </c>
       <c r="G76" t="n">
-        <v>-508414.1439290699</v>
+        <v>617.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
@@ -3088,6 +3151,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3109,13 +3173,13 @@
         <v>83.7315</v>
       </c>
       <c r="G77" t="n">
-        <v>-508414.1439290699</v>
+        <v>616</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
@@ -3123,6 +3187,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3144,13 +3209,13 @@
         <v>157</v>
       </c>
       <c r="G78" t="n">
-        <v>-508571.1439290699</v>
+        <v>614.5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
@@ -3158,6 +3223,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3179,13 +3245,13 @@
         <v>333.7315</v>
       </c>
       <c r="G79" t="n">
-        <v>-508237.4124290699</v>
+        <v>613.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
@@ -3193,6 +3259,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3214,13 +3281,13 @@
         <v>68</v>
       </c>
       <c r="G80" t="n">
-        <v>-508169.4124290699</v>
+        <v>615</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
@@ -3228,6 +3295,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3249,13 +3317,13 @@
         <v>42.5029</v>
       </c>
       <c r="G81" t="n">
-        <v>-508211.9153290699</v>
+        <v>615.5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -3263,6 +3331,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3284,13 +3353,13 @@
         <v>539.5</v>
       </c>
       <c r="G82" t="n">
-        <v>-508751.4153290699</v>
+        <v>614</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -3298,6 +3367,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3319,13 +3389,13 @@
         <v>500</v>
       </c>
       <c r="G83" t="n">
-        <v>-509251.4153290699</v>
+        <v>610</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -3333,6 +3403,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3354,13 +3425,13 @@
         <v>125</v>
       </c>
       <c r="G84" t="n">
-        <v>-509126.4153290699</v>
+        <v>608.5</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -3368,6 +3439,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3389,7 +3461,7 @@
         <v>331.5203</v>
       </c>
       <c r="G85" t="n">
-        <v>-509457.9356290699</v>
+        <v>609</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3403,6 +3475,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3424,7 +3497,7 @@
         <v>73.28749999999999</v>
       </c>
       <c r="G86" t="n">
-        <v>-509384.6481290699</v>
+        <v>609.5</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3438,6 +3511,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3459,7 +3533,7 @@
         <v>1419.8391</v>
       </c>
       <c r="G87" t="n">
-        <v>-509384.6481290699</v>
+        <v>611</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3473,6 +3547,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3494,7 +3569,7 @@
         <v>742.0805</v>
       </c>
       <c r="G88" t="n">
-        <v>-508642.5676290699</v>
+        <v>613</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3508,6 +3583,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3529,7 +3605,7 @@
         <v>2</v>
       </c>
       <c r="G89" t="n">
-        <v>-508642.5676290699</v>
+        <v>615</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3543,6 +3619,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3564,7 +3641,7 @@
         <v>108.4917</v>
       </c>
       <c r="G90" t="n">
-        <v>-508751.0593290699</v>
+        <v>614</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3578,6 +3655,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3599,7 +3677,7 @@
         <v>58.858</v>
       </c>
       <c r="G91" t="n">
-        <v>-508751.0593290699</v>
+        <v>613</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3613,6 +3691,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3634,13 +3713,13 @@
         <v>10</v>
       </c>
       <c r="G92" t="n">
-        <v>-508751.0593290699</v>
+        <v>613</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
@@ -3648,6 +3727,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3669,13 +3749,13 @@
         <v>34.11</v>
       </c>
       <c r="G93" t="n">
-        <v>-508751.0593290699</v>
+        <v>613</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
@@ -3683,6 +3763,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3704,13 +3785,13 @@
         <v>74.0399</v>
       </c>
       <c r="G94" t="n">
-        <v>-508751.0593290699</v>
+        <v>613</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -3718,6 +3799,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3739,13 +3821,13 @@
         <v>52</v>
       </c>
       <c r="G95" t="n">
-        <v>-508803.0593290699</v>
+        <v>612.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -3753,6 +3835,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3774,13 +3857,13 @@
         <v>171.79</v>
       </c>
       <c r="G96" t="n">
-        <v>-508974.8493290699</v>
+        <v>611.5</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
@@ -3788,6 +3871,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3809,13 +3893,13 @@
         <v>2024.0735</v>
       </c>
       <c r="G97" t="n">
-        <v>-506950.7758290699</v>
+        <v>615</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
@@ -3823,6 +3907,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3844,13 +3929,13 @@
         <v>710</v>
       </c>
       <c r="G98" t="n">
-        <v>-507660.7758290699</v>
+        <v>616.5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
@@ -3858,6 +3943,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3879,13 +3965,13 @@
         <v>710</v>
       </c>
       <c r="G99" t="n">
-        <v>-508370.7758290699</v>
+        <v>613.5</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
@@ -3893,6 +3979,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3914,13 +4001,13 @@
         <v>2946.8444</v>
       </c>
       <c r="G100" t="n">
-        <v>-511317.6202290699</v>
+        <v>611</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
@@ -3928,6 +4015,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3949,7 +4037,7 @@
         <v>81.6993464</v>
       </c>
       <c r="G101" t="n">
-        <v>-511235.9208826699</v>
+        <v>610.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3963,6 +4051,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3984,7 +4073,7 @@
         <v>1706.5813</v>
       </c>
       <c r="G102" t="n">
-        <v>-512942.5021826699</v>
+        <v>611</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3998,6 +4087,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4019,7 +4109,7 @@
         <v>10</v>
       </c>
       <c r="G103" t="n">
-        <v>-512932.5021826699</v>
+        <v>612</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4033,6 +4123,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4054,13 +4145,13 @@
         <v>41.8765</v>
       </c>
       <c r="G104" t="n">
-        <v>-512974.37868267</v>
+        <v>612.5</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
@@ -4068,6 +4159,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4089,13 +4181,13 @@
         <v>1</v>
       </c>
       <c r="G105" t="n">
-        <v>-512974.37868267</v>
+        <v>611</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
@@ -4103,6 +4195,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4124,13 +4217,13 @@
         <v>115.804</v>
       </c>
       <c r="G106" t="n">
-        <v>-512858.5746826699</v>
+        <v>613</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
@@ -4138,6 +4231,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4159,13 +4253,13 @@
         <v>574.2101</v>
       </c>
       <c r="G107" t="n">
-        <v>-512284.3645826699</v>
+        <v>616</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
@@ -4173,6 +4267,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4194,7 +4289,7 @@
         <v>627.072</v>
       </c>
       <c r="G108" t="n">
-        <v>-512284.3645826699</v>
+        <v>617</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4208,6 +4303,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4229,7 +4325,7 @@
         <v>5</v>
       </c>
       <c r="G109" t="n">
-        <v>-512284.3645826699</v>
+        <v>617</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4243,6 +4339,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4264,7 +4361,7 @@
         <v>691.0486</v>
       </c>
       <c r="G110" t="n">
-        <v>-511593.3159826699</v>
+        <v>617.5</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4278,6 +4375,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4299,7 +4397,7 @@
         <v>601.4125</v>
       </c>
       <c r="G111" t="n">
-        <v>-511593.3159826699</v>
+        <v>618</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4313,6 +4411,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4334,7 +4433,7 @@
         <v>728.0867</v>
       </c>
       <c r="G112" t="n">
-        <v>-512321.4026826699</v>
+        <v>617.5</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4348,6 +4447,7 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4369,13 +4469,13 @@
         <v>80</v>
       </c>
       <c r="G113" t="n">
-        <v>-512321.4026826699</v>
+        <v>617</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
@@ -4383,6 +4483,7 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4404,7 +4505,7 @@
         <v>910.6485</v>
       </c>
       <c r="G114" t="n">
-        <v>-511410.7541826699</v>
+        <v>618</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4418,6 +4519,7 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4439,7 +4541,7 @@
         <v>562</v>
       </c>
       <c r="G115" t="n">
-        <v>-511410.7541826699</v>
+        <v>619</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4453,6 +4555,7 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4474,7 +4577,7 @@
         <v>83.77330000000001</v>
       </c>
       <c r="G116" t="n">
-        <v>-511494.5274826699</v>
+        <v>618</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4488,6 +4591,7 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4509,7 +4613,7 @@
         <v>1123.0964</v>
       </c>
       <c r="G117" t="n">
-        <v>-512617.6238826699</v>
+        <v>614.5</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4523,6 +4627,7 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-11-20 BackTest PPT.xlsx
+++ b/BackTest/2019-11-20 BackTest PPT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C2" t="n">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D2" t="n">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E2" t="n">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="F2" t="n">
-        <v>2390.831</v>
+        <v>774400</v>
       </c>
       <c r="G2" t="n">
-        <v>577.5</v>
+        <v>-526802.1237999999</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="C3" t="n">
-        <v>599</v>
+        <v>577</v>
       </c>
       <c r="D3" t="n">
-        <v>599</v>
+        <v>577</v>
       </c>
       <c r="E3" t="n">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="F3" t="n">
-        <v>729.4948000000001</v>
+        <v>796800</v>
       </c>
       <c r="G3" t="n">
-        <v>587.5</v>
+        <v>-526802.1237999999</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="C4" t="n">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="D4" t="n">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="E4" t="n">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="F4" t="n">
-        <v>2228.2933</v>
+        <v>787200</v>
       </c>
       <c r="G4" t="n">
-        <v>589.5</v>
+        <v>-526802.1237999999</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="C5" t="n">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="D5" t="n">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="E5" t="n">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="F5" t="n">
-        <v>1453.171</v>
+        <v>787200</v>
       </c>
       <c r="G5" t="n">
-        <v>583.5</v>
+        <v>-526802.1237999999</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="C6" t="n">
-        <v>594</v>
+        <v>577</v>
       </c>
       <c r="D6" t="n">
-        <v>594</v>
+        <v>577</v>
       </c>
       <c r="E6" t="n">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="F6" t="n">
-        <v>1188.3307</v>
+        <v>784000</v>
       </c>
       <c r="G6" t="n">
-        <v>590.5</v>
+        <v>-526802.1237999999</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>592</v>
+        <v>577</v>
       </c>
       <c r="C7" t="n">
-        <v>592</v>
+        <v>577</v>
       </c>
       <c r="D7" t="n">
-        <v>592</v>
+        <v>577</v>
       </c>
       <c r="E7" t="n">
-        <v>592</v>
+        <v>577</v>
       </c>
       <c r="F7" t="n">
-        <v>2.5</v>
+        <v>761600</v>
       </c>
       <c r="G7" t="n">
-        <v>593</v>
+        <v>-526802.1237999999</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="C8" t="n">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="D8" t="n">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="E8" t="n">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="F8" t="n">
-        <v>125.5</v>
+        <v>771200</v>
       </c>
       <c r="G8" t="n">
-        <v>591.5</v>
+        <v>-526802.1237999999</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>592</v>
+        <v>577</v>
       </c>
       <c r="C9" t="n">
-        <v>600</v>
+        <v>577</v>
       </c>
       <c r="D9" t="n">
-        <v>600</v>
+        <v>577</v>
       </c>
       <c r="E9" t="n">
-        <v>592</v>
+        <v>577</v>
       </c>
       <c r="F9" t="n">
-        <v>566.9016</v>
+        <v>774400</v>
       </c>
       <c r="G9" t="n">
-        <v>595.5</v>
+        <v>-526802.1237999999</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>600</v>
+        <v>577</v>
       </c>
       <c r="C10" t="n">
-        <v>611</v>
+        <v>577</v>
       </c>
       <c r="D10" t="n">
-        <v>611</v>
+        <v>577</v>
       </c>
       <c r="E10" t="n">
-        <v>600</v>
+        <v>577</v>
       </c>
       <c r="F10" t="n">
-        <v>558.0134</v>
+        <v>777600</v>
       </c>
       <c r="G10" t="n">
-        <v>605.5</v>
+        <v>-526802.1237999999</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>611</v>
+        <v>577</v>
       </c>
       <c r="C11" t="n">
-        <v>602</v>
+        <v>577</v>
       </c>
       <c r="D11" t="n">
-        <v>611</v>
+        <v>577</v>
       </c>
       <c r="E11" t="n">
-        <v>602</v>
+        <v>577</v>
       </c>
       <c r="F11" t="n">
-        <v>2825.3711</v>
+        <v>761600</v>
       </c>
       <c r="G11" t="n">
-        <v>606.5</v>
+        <v>-526802.1237999999</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>617</v>
+        <v>577</v>
       </c>
       <c r="C12" t="n">
-        <v>609</v>
+        <v>577</v>
       </c>
       <c r="D12" t="n">
-        <v>617</v>
+        <v>577</v>
       </c>
       <c r="E12" t="n">
-        <v>609</v>
+        <v>577</v>
       </c>
       <c r="F12" t="n">
-        <v>1373.473</v>
+        <v>77597</v>
       </c>
       <c r="G12" t="n">
-        <v>605.5</v>
+        <v>-526802.1237999999</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>614</v>
+        <v>577</v>
       </c>
       <c r="C13" t="n">
-        <v>614</v>
+        <v>576</v>
       </c>
       <c r="D13" t="n">
-        <v>614</v>
+        <v>577</v>
       </c>
       <c r="E13" t="n">
-        <v>608</v>
+        <v>576</v>
       </c>
       <c r="F13" t="n">
-        <v>1327.8132</v>
+        <v>245.9503</v>
       </c>
       <c r="G13" t="n">
-        <v>611.5</v>
+        <v>-527048.0741</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>608</v>
+        <v>576</v>
       </c>
       <c r="C14" t="n">
-        <v>608</v>
+        <v>576</v>
       </c>
       <c r="D14" t="n">
-        <v>608</v>
+        <v>576</v>
       </c>
       <c r="E14" t="n">
-        <v>608</v>
+        <v>576</v>
       </c>
       <c r="F14" t="n">
-        <v>971.1497000000001</v>
+        <v>73.73</v>
       </c>
       <c r="G14" t="n">
-        <v>611</v>
+        <v>-527048.0741</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>612</v>
+        <v>576</v>
       </c>
       <c r="C15" t="n">
-        <v>610</v>
+        <v>576</v>
       </c>
       <c r="D15" t="n">
-        <v>612</v>
+        <v>576</v>
       </c>
       <c r="E15" t="n">
-        <v>609</v>
+        <v>576</v>
       </c>
       <c r="F15" t="n">
-        <v>1893.2283</v>
+        <v>1815.4577</v>
       </c>
       <c r="G15" t="n">
-        <v>609</v>
+        <v>-527048.0741</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -942,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>615</v>
+        <v>576</v>
       </c>
       <c r="C16" t="n">
-        <v>610</v>
+        <v>576</v>
       </c>
       <c r="D16" t="n">
-        <v>615</v>
+        <v>576</v>
       </c>
       <c r="E16" t="n">
-        <v>610</v>
+        <v>576</v>
       </c>
       <c r="F16" t="n">
-        <v>1628.5805</v>
+        <v>3712.8692</v>
       </c>
       <c r="G16" t="n">
-        <v>610</v>
+        <v>-527048.0741</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -978,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>610</v>
+        <v>577</v>
       </c>
       <c r="C17" t="n">
-        <v>613</v>
+        <v>578</v>
       </c>
       <c r="D17" t="n">
-        <v>616</v>
+        <v>578</v>
       </c>
       <c r="E17" t="n">
-        <v>610</v>
+        <v>577</v>
       </c>
       <c r="F17" t="n">
-        <v>3295.4125</v>
+        <v>3327.1556</v>
       </c>
       <c r="G17" t="n">
-        <v>611.5</v>
+        <v>-523720.9185</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1014,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>612</v>
+        <v>579</v>
       </c>
       <c r="C18" t="n">
-        <v>610</v>
+        <v>579</v>
       </c>
       <c r="D18" t="n">
-        <v>612</v>
+        <v>579</v>
       </c>
       <c r="E18" t="n">
-        <v>610</v>
+        <v>579</v>
       </c>
       <c r="F18" t="n">
-        <v>2308.824</v>
+        <v>1750</v>
       </c>
       <c r="G18" t="n">
-        <v>611.5</v>
+        <v>-521970.9185</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1050,31 +1050,35 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>610</v>
+        <v>579</v>
       </c>
       <c r="C19" t="n">
-        <v>610</v>
+        <v>579</v>
       </c>
       <c r="D19" t="n">
-        <v>610</v>
+        <v>579</v>
       </c>
       <c r="E19" t="n">
-        <v>609</v>
+        <v>579</v>
       </c>
       <c r="F19" t="n">
-        <v>1489.89</v>
+        <v>376</v>
       </c>
       <c r="G19" t="n">
-        <v>610</v>
+        <v>-521970.9185</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>579</v>
+      </c>
+      <c r="K19" t="n">
+        <v>579</v>
+      </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
@@ -1086,32 +1090,40 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>606</v>
+        <v>579</v>
       </c>
       <c r="C20" t="n">
-        <v>608</v>
+        <v>579</v>
       </c>
       <c r="D20" t="n">
-        <v>608</v>
+        <v>579</v>
       </c>
       <c r="E20" t="n">
-        <v>606</v>
+        <v>579</v>
       </c>
       <c r="F20" t="n">
-        <v>395.8689</v>
+        <v>163.5001</v>
       </c>
       <c r="G20" t="n">
-        <v>609</v>
+        <v>-521970.9185</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>579</v>
+      </c>
+      <c r="K20" t="n">
+        <v>579</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1122,32 +1134,40 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>605</v>
+        <v>580</v>
       </c>
       <c r="C21" t="n">
-        <v>605</v>
+        <v>582</v>
       </c>
       <c r="D21" t="n">
-        <v>605</v>
+        <v>582</v>
       </c>
       <c r="E21" t="n">
-        <v>605</v>
+        <v>580</v>
       </c>
       <c r="F21" t="n">
-        <v>100</v>
+        <v>482.353</v>
       </c>
       <c r="G21" t="n">
-        <v>606.5</v>
+        <v>-521488.5655</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>579</v>
+      </c>
+      <c r="K21" t="n">
+        <v>579</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1158,32 +1178,40 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>600</v>
+        <v>577</v>
       </c>
       <c r="C22" t="n">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="D22" t="n">
-        <v>601</v>
+        <v>579</v>
       </c>
       <c r="E22" t="n">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="F22" t="n">
-        <v>1413.0843</v>
+        <v>392.4292</v>
       </c>
       <c r="G22" t="n">
-        <v>597</v>
+        <v>-521880.9947</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>582</v>
+      </c>
+      <c r="K22" t="n">
+        <v>579</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1194,32 +1222,40 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="C23" t="n">
-        <v>602</v>
+        <v>587</v>
       </c>
       <c r="D23" t="n">
-        <v>602</v>
+        <v>587</v>
       </c>
       <c r="E23" t="n">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="F23" t="n">
-        <v>679.3849</v>
+        <v>0.9</v>
       </c>
       <c r="G23" t="n">
-        <v>595.5</v>
+        <v>-521880.0947</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>579</v>
+      </c>
+      <c r="K23" t="n">
+        <v>579</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1230,32 +1266,40 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>600</v>
+        <v>585</v>
       </c>
       <c r="C24" t="n">
-        <v>600</v>
+        <v>585</v>
       </c>
       <c r="D24" t="n">
-        <v>600</v>
+        <v>585</v>
       </c>
       <c r="E24" t="n">
-        <v>600</v>
+        <v>585</v>
       </c>
       <c r="F24" t="n">
-        <v>51.353</v>
+        <v>10</v>
       </c>
       <c r="G24" t="n">
-        <v>601</v>
+        <v>-521890.0947</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>587</v>
+      </c>
+      <c r="K24" t="n">
+        <v>579</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1266,22 +1310,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>600</v>
+        <v>580</v>
       </c>
       <c r="C25" t="n">
-        <v>593</v>
+        <v>580</v>
       </c>
       <c r="D25" t="n">
-        <v>600</v>
+        <v>580</v>
       </c>
       <c r="E25" t="n">
-        <v>593</v>
+        <v>580</v>
       </c>
       <c r="F25" t="n">
-        <v>277.1649</v>
+        <v>160.4822</v>
       </c>
       <c r="G25" t="n">
-        <v>596.5</v>
+        <v>-522050.5769</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1290,8 +1334,14 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>579</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1302,22 +1352,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>595</v>
+        <v>580</v>
       </c>
       <c r="C26" t="n">
-        <v>597</v>
+        <v>580</v>
       </c>
       <c r="D26" t="n">
-        <v>597</v>
+        <v>580</v>
       </c>
       <c r="E26" t="n">
-        <v>595</v>
+        <v>580</v>
       </c>
       <c r="F26" t="n">
-        <v>833.063</v>
+        <v>222.84</v>
       </c>
       <c r="G26" t="n">
-        <v>595</v>
+        <v>-522050.5769</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1326,8 +1376,14 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>579</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1338,22 +1394,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>597</v>
+        <v>580</v>
       </c>
       <c r="C27" t="n">
-        <v>595</v>
+        <v>579</v>
       </c>
       <c r="D27" t="n">
-        <v>597</v>
+        <v>580</v>
       </c>
       <c r="E27" t="n">
-        <v>595</v>
+        <v>579</v>
       </c>
       <c r="F27" t="n">
-        <v>214</v>
+        <v>2288.3005</v>
       </c>
       <c r="G27" t="n">
-        <v>596</v>
+        <v>-524338.8774</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1362,8 +1418,14 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>579</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1374,22 +1436,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>596</v>
+        <v>580</v>
       </c>
       <c r="C28" t="n">
-        <v>596</v>
+        <v>580</v>
       </c>
       <c r="D28" t="n">
-        <v>596</v>
+        <v>580</v>
       </c>
       <c r="E28" t="n">
-        <v>596</v>
+        <v>580</v>
       </c>
       <c r="F28" t="n">
-        <v>250.6332</v>
+        <v>336</v>
       </c>
       <c r="G28" t="n">
-        <v>595.5</v>
+        <v>-524002.8774</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1398,8 +1460,14 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>579</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1410,22 +1478,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="C29" t="n">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="D29" t="n">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="E29" t="n">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="F29" t="n">
-        <v>185.4</v>
+        <v>452.5328</v>
       </c>
       <c r="G29" t="n">
-        <v>596</v>
+        <v>-523550.3446</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1434,8 +1502,14 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>579</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1446,22 +1520,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="C30" t="n">
-        <v>595</v>
+        <v>579</v>
       </c>
       <c r="D30" t="n">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="E30" t="n">
-        <v>595</v>
+        <v>579</v>
       </c>
       <c r="F30" t="n">
-        <v>273.134</v>
+        <v>144</v>
       </c>
       <c r="G30" t="n">
-        <v>595.5</v>
+        <v>-523694.3446</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1470,8 +1544,14 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>579</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1482,22 +1562,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>601</v>
+        <v>578</v>
       </c>
       <c r="C31" t="n">
-        <v>601</v>
+        <v>576</v>
       </c>
       <c r="D31" t="n">
-        <v>601</v>
+        <v>578</v>
       </c>
       <c r="E31" t="n">
-        <v>601</v>
+        <v>576</v>
       </c>
       <c r="F31" t="n">
-        <v>415.2</v>
+        <v>2390.831</v>
       </c>
       <c r="G31" t="n">
-        <v>598</v>
+        <v>-526085.1756</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1506,8 +1586,14 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>579</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1518,22 +1604,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>603</v>
+        <v>580</v>
       </c>
       <c r="C32" t="n">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="D32" t="n">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="E32" t="n">
-        <v>603</v>
+        <v>580</v>
       </c>
       <c r="F32" t="n">
-        <v>1677.4283</v>
+        <v>729.4948000000001</v>
       </c>
       <c r="G32" t="n">
-        <v>602</v>
+        <v>-525355.6808</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1542,8 +1628,14 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>579</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1554,22 +1646,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>601</v>
+        <v>581</v>
       </c>
       <c r="C33" t="n">
-        <v>606</v>
+        <v>580</v>
       </c>
       <c r="D33" t="n">
-        <v>606</v>
+        <v>581</v>
       </c>
       <c r="E33" t="n">
-        <v>601</v>
+        <v>580</v>
       </c>
       <c r="F33" t="n">
-        <v>364.6511</v>
+        <v>2228.2933</v>
       </c>
       <c r="G33" t="n">
-        <v>604.5</v>
+        <v>-527583.9741</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1578,8 +1670,14 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>579</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1590,22 +1688,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>598</v>
+        <v>583</v>
       </c>
       <c r="C34" t="n">
-        <v>598</v>
+        <v>587</v>
       </c>
       <c r="D34" t="n">
-        <v>598</v>
+        <v>587</v>
       </c>
       <c r="E34" t="n">
-        <v>598</v>
+        <v>583</v>
       </c>
       <c r="F34" t="n">
-        <v>695.9967</v>
+        <v>1453.171</v>
       </c>
       <c r="G34" t="n">
-        <v>602</v>
+        <v>-526130.8031</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1614,8 +1712,14 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>579</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1626,22 +1730,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="C35" t="n">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="D35" t="n">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="E35" t="n">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="F35" t="n">
-        <v>962.0104</v>
+        <v>1188.3307</v>
       </c>
       <c r="G35" t="n">
-        <v>598.5</v>
+        <v>-524942.4724</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1650,8 +1754,14 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>579</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1662,22 +1772,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="C36" t="n">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="D36" t="n">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="E36" t="n">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="F36" t="n">
-        <v>279.3787</v>
+        <v>2.5</v>
       </c>
       <c r="G36" t="n">
-        <v>598.5</v>
+        <v>-524944.9724</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1686,8 +1796,14 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>579</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1698,22 +1814,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="C37" t="n">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="D37" t="n">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="E37" t="n">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="F37" t="n">
-        <v>50.1033</v>
+        <v>125.5</v>
       </c>
       <c r="G37" t="n">
-        <v>597.5</v>
+        <v>-525070.4724</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1722,8 +1838,14 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>579</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1734,22 +1856,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="C38" t="n">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="D38" t="n">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="E38" t="n">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="F38" t="n">
-        <v>344.5552</v>
+        <v>566.9016</v>
       </c>
       <c r="G38" t="n">
-        <v>596.5</v>
+        <v>-524503.5708</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1758,8 +1880,14 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>579</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1770,22 +1898,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="C39" t="n">
-        <v>596</v>
+        <v>611</v>
       </c>
       <c r="D39" t="n">
-        <v>596</v>
+        <v>611</v>
       </c>
       <c r="E39" t="n">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="F39" t="n">
-        <v>783.1833</v>
+        <v>558.0134</v>
       </c>
       <c r="G39" t="n">
-        <v>596</v>
+        <v>-523945.5574</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1794,8 +1922,14 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>579</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1806,36 +1940,38 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>596</v>
+        <v>611</v>
       </c>
       <c r="C40" t="n">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="D40" t="n">
-        <v>596</v>
+        <v>611</v>
       </c>
       <c r="E40" t="n">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="F40" t="n">
-        <v>178.6078</v>
+        <v>2825.3711</v>
       </c>
       <c r="G40" t="n">
-        <v>596</v>
+        <v>-526770.9285</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>596</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
-        <v>596</v>
-      </c>
-      <c r="L40" t="inlineStr"/>
+        <v>579</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1846,38 +1982,36 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>596</v>
+        <v>617</v>
       </c>
       <c r="C41" t="n">
-        <v>596</v>
+        <v>609</v>
       </c>
       <c r="D41" t="n">
-        <v>596</v>
+        <v>617</v>
       </c>
       <c r="E41" t="n">
-        <v>596</v>
+        <v>609</v>
       </c>
       <c r="F41" t="n">
-        <v>244.6044</v>
+        <v>1373.473</v>
       </c>
       <c r="G41" t="n">
-        <v>596</v>
+        <v>-525397.4555</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>596</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>596</v>
+        <v>579</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M41" t="n">
@@ -1890,38 +2024,36 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="C42" t="n">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="D42" t="n">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="E42" t="n">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="F42" t="n">
-        <v>203.6836</v>
+        <v>1327.8132</v>
       </c>
       <c r="G42" t="n">
-        <v>596</v>
+        <v>-524069.6423000001</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>596</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>596</v>
+        <v>579</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M42" t="n">
@@ -1934,22 +2066,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>598</v>
+        <v>608</v>
       </c>
       <c r="C43" t="n">
-        <v>598</v>
+        <v>608</v>
       </c>
       <c r="D43" t="n">
-        <v>598</v>
+        <v>608</v>
       </c>
       <c r="E43" t="n">
-        <v>598</v>
+        <v>608</v>
       </c>
       <c r="F43" t="n">
-        <v>572.83</v>
+        <v>971.1497000000001</v>
       </c>
       <c r="G43" t="n">
-        <v>597</v>
+        <v>-525040.792</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1958,8 +2090,14 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>579</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1970,22 +2108,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>600</v>
+        <v>612</v>
       </c>
       <c r="C44" t="n">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="D44" t="n">
-        <v>600</v>
+        <v>612</v>
       </c>
       <c r="E44" t="n">
-        <v>600</v>
+        <v>609</v>
       </c>
       <c r="F44" t="n">
-        <v>307</v>
+        <v>1893.2283</v>
       </c>
       <c r="G44" t="n">
-        <v>599</v>
+        <v>-523147.5637</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1994,8 +2132,14 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>579</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2006,22 +2150,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>598</v>
+        <v>615</v>
       </c>
       <c r="C45" t="n">
-        <v>598</v>
+        <v>610</v>
       </c>
       <c r="D45" t="n">
-        <v>598</v>
+        <v>615</v>
       </c>
       <c r="E45" t="n">
-        <v>598</v>
+        <v>610</v>
       </c>
       <c r="F45" t="n">
-        <v>307</v>
+        <v>1628.5805</v>
       </c>
       <c r="G45" t="n">
-        <v>599</v>
+        <v>-523147.5637</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2030,8 +2174,14 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>579</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2042,22 +2192,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>593</v>
+        <v>610</v>
       </c>
       <c r="C46" t="n">
-        <v>591</v>
+        <v>613</v>
       </c>
       <c r="D46" t="n">
-        <v>593</v>
+        <v>616</v>
       </c>
       <c r="E46" t="n">
-        <v>591</v>
+        <v>610</v>
       </c>
       <c r="F46" t="n">
-        <v>2109.7314</v>
+        <v>3295.4125</v>
       </c>
       <c r="G46" t="n">
-        <v>594.5</v>
+        <v>-519852.1512</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2066,8 +2216,14 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>579</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2078,22 +2234,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>596</v>
+        <v>612</v>
       </c>
       <c r="C47" t="n">
-        <v>594</v>
+        <v>610</v>
       </c>
       <c r="D47" t="n">
-        <v>596</v>
+        <v>612</v>
       </c>
       <c r="E47" t="n">
-        <v>594</v>
+        <v>610</v>
       </c>
       <c r="F47" t="n">
-        <v>1819.8922</v>
+        <v>2308.824</v>
       </c>
       <c r="G47" t="n">
-        <v>592.5</v>
+        <v>-522160.9752</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2102,8 +2258,14 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>579</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2114,22 +2276,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>594</v>
+        <v>610</v>
       </c>
       <c r="C48" t="n">
-        <v>594</v>
+        <v>610</v>
       </c>
       <c r="D48" t="n">
-        <v>594</v>
+        <v>610</v>
       </c>
       <c r="E48" t="n">
-        <v>594</v>
+        <v>609</v>
       </c>
       <c r="F48" t="n">
-        <v>893.1503</v>
+        <v>1489.89</v>
       </c>
       <c r="G48" t="n">
-        <v>594</v>
+        <v>-522160.9752</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2138,8 +2300,14 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>579</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2150,22 +2318,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>592</v>
+        <v>606</v>
       </c>
       <c r="C49" t="n">
-        <v>595</v>
+        <v>608</v>
       </c>
       <c r="D49" t="n">
-        <v>595</v>
+        <v>608</v>
       </c>
       <c r="E49" t="n">
-        <v>591</v>
+        <v>606</v>
       </c>
       <c r="F49" t="n">
-        <v>2153.7363</v>
+        <v>395.8689</v>
       </c>
       <c r="G49" t="n">
-        <v>594.5</v>
+        <v>-522556.8441</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2174,8 +2342,14 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>579</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2186,22 +2360,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>591</v>
+        <v>605</v>
       </c>
       <c r="C50" t="n">
-        <v>591</v>
+        <v>605</v>
       </c>
       <c r="D50" t="n">
-        <v>591</v>
+        <v>605</v>
       </c>
       <c r="E50" t="n">
-        <v>591</v>
+        <v>605</v>
       </c>
       <c r="F50" t="n">
-        <v>1177.0437</v>
+        <v>100</v>
       </c>
       <c r="G50" t="n">
-        <v>593</v>
+        <v>-522656.8441</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2210,8 +2384,14 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>579</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2222,22 +2402,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="C51" t="n">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="D51" t="n">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="E51" t="n">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="F51" t="n">
-        <v>269</v>
+        <v>1413.0843</v>
       </c>
       <c r="G51" t="n">
-        <v>593.5</v>
+        <v>-524069.9284</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2246,8 +2426,14 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>579</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2258,22 +2444,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
+        <v>592</v>
+      </c>
+      <c r="C52" t="n">
         <v>602</v>
       </c>
-      <c r="C52" t="n">
-        <v>609</v>
-      </c>
       <c r="D52" t="n">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="E52" t="n">
-        <v>602</v>
+        <v>591</v>
       </c>
       <c r="F52" t="n">
-        <v>2870.72547093</v>
+        <v>679.3849</v>
       </c>
       <c r="G52" t="n">
-        <v>602.5</v>
+        <v>-523390.5435</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2282,8 +2468,14 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>579</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2294,22 +2486,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C53" t="n">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D53" t="n">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E53" t="n">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F53" t="n">
-        <v>308.8</v>
+        <v>51.353</v>
       </c>
       <c r="G53" t="n">
-        <v>605</v>
+        <v>-523441.8965</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2318,8 +2510,14 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>579</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2330,22 +2528,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="C54" t="n">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="D54" t="n">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E54" t="n">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="F54" t="n">
-        <v>67.3819</v>
+        <v>277.1649</v>
       </c>
       <c r="G54" t="n">
-        <v>599.5</v>
+        <v>-523719.0614</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2354,8 +2552,14 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>579</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2366,22 +2570,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="C55" t="n">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D55" t="n">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="E55" t="n">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="F55" t="n">
-        <v>336.1544</v>
+        <v>833.063</v>
       </c>
       <c r="G55" t="n">
-        <v>599</v>
+        <v>-522885.9984</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2390,8 +2594,14 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>579</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2405,19 +2615,19 @@
         <v>597</v>
       </c>
       <c r="C56" t="n">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D56" t="n">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E56" t="n">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F56" t="n">
-        <v>712.3364</v>
+        <v>214</v>
       </c>
       <c r="G56" t="n">
-        <v>599</v>
+        <v>-523099.9984</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2426,8 +2636,14 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>579</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2438,22 +2654,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C57" t="n">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D57" t="n">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E57" t="n">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F57" t="n">
-        <v>611.1716</v>
+        <v>250.6332</v>
       </c>
       <c r="G57" t="n">
-        <v>597.5</v>
+        <v>-522849.3652</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2462,8 +2678,14 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>579</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2474,22 +2696,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C58" t="n">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D58" t="n">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E58" t="n">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F58" t="n">
-        <v>275.0173</v>
+        <v>185.4</v>
       </c>
       <c r="G58" t="n">
-        <v>597</v>
+        <v>-522849.3652</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2498,8 +2720,14 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>579</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2510,22 +2738,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="C59" t="n">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="D59" t="n">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="E59" t="n">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="F59" t="n">
-        <v>1110.183</v>
+        <v>273.134</v>
       </c>
       <c r="G59" t="n">
-        <v>599.5</v>
+        <v>-523122.4992</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2534,8 +2762,14 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>579</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2546,22 +2780,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="C60" t="n">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="D60" t="n">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="E60" t="n">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="F60" t="n">
-        <v>117</v>
+        <v>415.2</v>
       </c>
       <c r="G60" t="n">
-        <v>599.5</v>
+        <v>-522707.2992</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2570,8 +2804,14 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>579</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2582,22 +2822,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="C61" t="n">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="D61" t="n">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="E61" t="n">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="F61" t="n">
-        <v>94</v>
+        <v>1677.4283</v>
       </c>
       <c r="G61" t="n">
-        <v>598</v>
+        <v>-521029.8709</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2606,8 +2846,14 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>579</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2618,22 +2864,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="C62" t="n">
-        <v>599</v>
+        <v>606</v>
       </c>
       <c r="D62" t="n">
-        <v>599</v>
+        <v>606</v>
       </c>
       <c r="E62" t="n">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="F62" t="n">
-        <v>1123.5067</v>
+        <v>364.6511</v>
       </c>
       <c r="G62" t="n">
-        <v>599</v>
+        <v>-520665.2198</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2642,8 +2888,14 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>579</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2657,19 +2909,19 @@
         <v>598</v>
       </c>
       <c r="C63" t="n">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D63" t="n">
         <v>598</v>
       </c>
       <c r="E63" t="n">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="F63" t="n">
-        <v>1469.5068</v>
+        <v>695.9967</v>
       </c>
       <c r="G63" t="n">
-        <v>598</v>
+        <v>-521361.2165</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2678,8 +2930,14 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>579</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2690,22 +2948,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="C64" t="n">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="D64" t="n">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="E64" t="n">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="F64" t="n">
-        <v>63</v>
+        <v>962.0104</v>
       </c>
       <c r="G64" t="n">
-        <v>597</v>
+        <v>-520399.2061</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2714,8 +2972,14 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>579</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2726,22 +2990,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="C65" t="n">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D65" t="n">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="E65" t="n">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="F65" t="n">
-        <v>930.183</v>
+        <v>279.3787</v>
       </c>
       <c r="G65" t="n">
-        <v>597</v>
+        <v>-520678.5848</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2750,8 +3014,14 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>579</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2762,22 +3032,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C66" t="n">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="D66" t="n">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="E66" t="n">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="F66" t="n">
-        <v>170.5799</v>
+        <v>50.1033</v>
       </c>
       <c r="G66" t="n">
-        <v>596</v>
+        <v>-520728.6881</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2786,8 +3056,14 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>579</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2798,22 +3074,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C67" t="n">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D67" t="n">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="E67" t="n">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="F67" t="n">
-        <v>715.9999</v>
+        <v>344.5552</v>
       </c>
       <c r="G67" t="n">
-        <v>596.5</v>
+        <v>-521073.2433</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2822,8 +3098,14 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>579</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2834,22 +3116,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C68" t="n">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D68" t="n">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="E68" t="n">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="F68" t="n">
-        <v>508.7599</v>
+        <v>783.1833</v>
       </c>
       <c r="G68" t="n">
-        <v>598</v>
+        <v>-521073.2433</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2858,8 +3140,14 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>579</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2882,10 +3170,10 @@
         <v>596</v>
       </c>
       <c r="F69" t="n">
-        <v>63</v>
+        <v>178.6078</v>
       </c>
       <c r="G69" t="n">
-        <v>597</v>
+        <v>-521073.2433</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2894,8 +3182,14 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>579</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2906,22 +3200,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C70" t="n">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D70" t="n">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="E70" t="n">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="F70" t="n">
-        <v>217.0562</v>
+        <v>244.6044</v>
       </c>
       <c r="G70" t="n">
-        <v>595.5</v>
+        <v>-521073.2433</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2930,8 +3224,14 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>579</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2954,10 +3254,10 @@
         <v>596</v>
       </c>
       <c r="F71" t="n">
-        <v>93.12130000000001</v>
+        <v>203.6836</v>
       </c>
       <c r="G71" t="n">
-        <v>595.5</v>
+        <v>-521073.2433</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2966,8 +3266,14 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>579</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2990,10 +3296,10 @@
         <v>598</v>
       </c>
       <c r="F72" t="n">
-        <v>333.0231</v>
+        <v>572.83</v>
       </c>
       <c r="G72" t="n">
-        <v>597</v>
+        <v>-520500.4133</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3002,8 +3308,14 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>579</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3014,22 +3326,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="C73" t="n">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="D73" t="n">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="E73" t="n">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="F73" t="n">
-        <v>199</v>
+        <v>307</v>
       </c>
       <c r="G73" t="n">
-        <v>597.5</v>
+        <v>-520193.4133</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3038,8 +3350,14 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>579</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3053,19 +3371,19 @@
         <v>598</v>
       </c>
       <c r="C74" t="n">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="D74" t="n">
-        <v>609</v>
+        <v>598</v>
       </c>
       <c r="E74" t="n">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="F74" t="n">
-        <v>7194.1481</v>
+        <v>307</v>
       </c>
       <c r="G74" t="n">
-        <v>602</v>
+        <v>-520500.4133</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3074,8 +3392,14 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>579</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3086,22 +3410,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>608</v>
+        <v>593</v>
       </c>
       <c r="C75" t="n">
-        <v>619</v>
+        <v>591</v>
       </c>
       <c r="D75" t="n">
-        <v>619</v>
+        <v>593</v>
       </c>
       <c r="E75" t="n">
-        <v>608</v>
+        <v>591</v>
       </c>
       <c r="F75" t="n">
-        <v>2524.81</v>
+        <v>2109.7314</v>
       </c>
       <c r="G75" t="n">
-        <v>613</v>
+        <v>-522610.1446999999</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3110,8 +3434,14 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>579</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3122,32 +3452,38 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>616</v>
+        <v>596</v>
       </c>
       <c r="C76" t="n">
-        <v>616</v>
+        <v>594</v>
       </c>
       <c r="D76" t="n">
-        <v>616</v>
+        <v>596</v>
       </c>
       <c r="E76" t="n">
-        <v>616</v>
+        <v>594</v>
       </c>
       <c r="F76" t="n">
-        <v>205.9165</v>
+        <v>1819.8922</v>
       </c>
       <c r="G76" t="n">
-        <v>617.5</v>
+        <v>-520790.2524999999</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>579</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3158,32 +3494,38 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>616</v>
+        <v>594</v>
       </c>
       <c r="C77" t="n">
-        <v>616</v>
+        <v>594</v>
       </c>
       <c r="D77" t="n">
-        <v>616</v>
+        <v>594</v>
       </c>
       <c r="E77" t="n">
-        <v>616</v>
+        <v>594</v>
       </c>
       <c r="F77" t="n">
-        <v>83.7315</v>
+        <v>893.1503</v>
       </c>
       <c r="G77" t="n">
-        <v>616</v>
+        <v>-520790.2524999999</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>579</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3194,32 +3536,38 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>613</v>
+        <v>592</v>
       </c>
       <c r="C78" t="n">
-        <v>613</v>
+        <v>595</v>
       </c>
       <c r="D78" t="n">
-        <v>613</v>
+        <v>595</v>
       </c>
       <c r="E78" t="n">
-        <v>613</v>
+        <v>591</v>
       </c>
       <c r="F78" t="n">
-        <v>157</v>
+        <v>2153.7363</v>
       </c>
       <c r="G78" t="n">
-        <v>614.5</v>
+        <v>-518636.5162</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>579</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3230,32 +3578,38 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>613</v>
+        <v>591</v>
       </c>
       <c r="C79" t="n">
-        <v>614</v>
+        <v>591</v>
       </c>
       <c r="D79" t="n">
-        <v>614</v>
+        <v>591</v>
       </c>
       <c r="E79" t="n">
-        <v>613</v>
+        <v>591</v>
       </c>
       <c r="F79" t="n">
-        <v>333.7315</v>
+        <v>1177.0437</v>
       </c>
       <c r="G79" t="n">
-        <v>613.5</v>
+        <v>-519813.5598999999</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>579</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3266,32 +3620,38 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>616</v>
+        <v>595</v>
       </c>
       <c r="C80" t="n">
-        <v>616</v>
+        <v>596</v>
       </c>
       <c r="D80" t="n">
-        <v>616</v>
+        <v>596</v>
       </c>
       <c r="E80" t="n">
-        <v>616</v>
+        <v>595</v>
       </c>
       <c r="F80" t="n">
-        <v>68</v>
+        <v>269</v>
       </c>
       <c r="G80" t="n">
-        <v>615</v>
+        <v>-519544.5598999999</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>579</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3302,32 +3662,38 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>615</v>
+        <v>602</v>
       </c>
       <c r="C81" t="n">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="D81" t="n">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="E81" t="n">
-        <v>615</v>
+        <v>602</v>
       </c>
       <c r="F81" t="n">
-        <v>42.5029</v>
+        <v>2870.72547093</v>
       </c>
       <c r="G81" t="n">
-        <v>615.5</v>
+        <v>-516673.8344290699</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>579</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3338,32 +3704,38 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="C82" t="n">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="D82" t="n">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="E82" t="n">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="F82" t="n">
-        <v>539.5</v>
+        <v>308.8</v>
       </c>
       <c r="G82" t="n">
-        <v>614</v>
+        <v>-516982.6344290699</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>579</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3374,32 +3746,38 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>613</v>
+        <v>598</v>
       </c>
       <c r="C83" t="n">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="D83" t="n">
-        <v>613</v>
+        <v>598</v>
       </c>
       <c r="E83" t="n">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="F83" t="n">
-        <v>500</v>
+        <v>67.3819</v>
       </c>
       <c r="G83" t="n">
-        <v>610</v>
+        <v>-517050.0163290699</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>579</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3410,32 +3788,38 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="C84" t="n">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="D84" t="n">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="E84" t="n">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="F84" t="n">
-        <v>125</v>
+        <v>336.1544</v>
       </c>
       <c r="G84" t="n">
-        <v>608.5</v>
+        <v>-516713.8619290699</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>579</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3446,22 +3830,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>608</v>
+        <v>597</v>
       </c>
       <c r="C85" t="n">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="D85" t="n">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="E85" t="n">
-        <v>608</v>
+        <v>597</v>
       </c>
       <c r="F85" t="n">
-        <v>331.5203</v>
+        <v>712.3364</v>
       </c>
       <c r="G85" t="n">
-        <v>609</v>
+        <v>-517426.1983290699</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3470,8 +3854,14 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>579</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3482,22 +3872,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>611</v>
+        <v>597</v>
       </c>
       <c r="C86" t="n">
-        <v>611</v>
+        <v>597</v>
       </c>
       <c r="D86" t="n">
-        <v>611</v>
+        <v>597</v>
       </c>
       <c r="E86" t="n">
-        <v>611</v>
+        <v>597</v>
       </c>
       <c r="F86" t="n">
-        <v>73.28749999999999</v>
+        <v>611.1716</v>
       </c>
       <c r="G86" t="n">
-        <v>609.5</v>
+        <v>-518037.3699290699</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3506,8 +3896,14 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>579</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3518,22 +3914,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>611</v>
+        <v>597</v>
       </c>
       <c r="C87" t="n">
-        <v>611</v>
+        <v>597</v>
       </c>
       <c r="D87" t="n">
-        <v>611</v>
+        <v>597</v>
       </c>
       <c r="E87" t="n">
-        <v>611</v>
+        <v>597</v>
       </c>
       <c r="F87" t="n">
-        <v>1419.8391</v>
+        <v>275.0173</v>
       </c>
       <c r="G87" t="n">
-        <v>611</v>
+        <v>-518037.3699290699</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3542,8 +3938,14 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>579</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3554,22 +3956,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>616</v>
+        <v>602</v>
       </c>
       <c r="C88" t="n">
-        <v>615</v>
+        <v>602</v>
       </c>
       <c r="D88" t="n">
-        <v>616</v>
+        <v>602</v>
       </c>
       <c r="E88" t="n">
-        <v>615</v>
+        <v>602</v>
       </c>
       <c r="F88" t="n">
-        <v>742.0805</v>
+        <v>1110.183</v>
       </c>
       <c r="G88" t="n">
-        <v>613</v>
+        <v>-516927.1869290699</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3578,8 +3980,14 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>579</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3590,22 +3998,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>615</v>
+        <v>597</v>
       </c>
       <c r="C89" t="n">
-        <v>615</v>
+        <v>597</v>
       </c>
       <c r="D89" t="n">
-        <v>615</v>
+        <v>597</v>
       </c>
       <c r="E89" t="n">
-        <v>615</v>
+        <v>597</v>
       </c>
       <c r="F89" t="n">
-        <v>2</v>
+        <v>117</v>
       </c>
       <c r="G89" t="n">
-        <v>615</v>
+        <v>-517044.1869290699</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3614,8 +4022,14 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>579</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3626,22 +4040,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>613</v>
+        <v>599</v>
       </c>
       <c r="C90" t="n">
-        <v>613</v>
+        <v>599</v>
       </c>
       <c r="D90" t="n">
-        <v>613</v>
+        <v>599</v>
       </c>
       <c r="E90" t="n">
-        <v>613</v>
+        <v>599</v>
       </c>
       <c r="F90" t="n">
-        <v>108.4917</v>
+        <v>94</v>
       </c>
       <c r="G90" t="n">
-        <v>614</v>
+        <v>-516950.1869290699</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3650,8 +4064,14 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>579</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3662,22 +4082,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>613</v>
+        <v>599</v>
       </c>
       <c r="C91" t="n">
-        <v>613</v>
+        <v>599</v>
       </c>
       <c r="D91" t="n">
-        <v>613</v>
+        <v>599</v>
       </c>
       <c r="E91" t="n">
-        <v>613</v>
+        <v>599</v>
       </c>
       <c r="F91" t="n">
-        <v>58.858</v>
+        <v>1123.5067</v>
       </c>
       <c r="G91" t="n">
-        <v>613</v>
+        <v>-516950.1869290699</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3686,8 +4106,14 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>579</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3698,32 +4124,38 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>613</v>
+        <v>598</v>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>597</v>
       </c>
       <c r="D92" t="n">
-        <v>613</v>
+        <v>598</v>
       </c>
       <c r="E92" t="n">
-        <v>613</v>
+        <v>597</v>
       </c>
       <c r="F92" t="n">
-        <v>10</v>
+        <v>1469.5068</v>
       </c>
       <c r="G92" t="n">
-        <v>613</v>
+        <v>-518419.6937290698</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>579</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3734,32 +4166,38 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>613</v>
+        <v>597</v>
       </c>
       <c r="C93" t="n">
-        <v>613</v>
+        <v>597</v>
       </c>
       <c r="D93" t="n">
-        <v>613</v>
+        <v>597</v>
       </c>
       <c r="E93" t="n">
-        <v>613</v>
+        <v>597</v>
       </c>
       <c r="F93" t="n">
-        <v>34.11</v>
+        <v>63</v>
       </c>
       <c r="G93" t="n">
-        <v>613</v>
+        <v>-518419.6937290698</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>579</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3770,32 +4208,38 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>613</v>
+        <v>597</v>
       </c>
       <c r="C94" t="n">
-        <v>613</v>
+        <v>597</v>
       </c>
       <c r="D94" t="n">
-        <v>613</v>
+        <v>597</v>
       </c>
       <c r="E94" t="n">
-        <v>613</v>
+        <v>597</v>
       </c>
       <c r="F94" t="n">
-        <v>74.0399</v>
+        <v>930.183</v>
       </c>
       <c r="G94" t="n">
-        <v>613</v>
+        <v>-518419.6937290698</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>579</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3806,32 +4250,38 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>612</v>
+        <v>596</v>
       </c>
       <c r="C95" t="n">
-        <v>612</v>
+        <v>595</v>
       </c>
       <c r="D95" t="n">
-        <v>612</v>
+        <v>596</v>
       </c>
       <c r="E95" t="n">
-        <v>612</v>
+        <v>595</v>
       </c>
       <c r="F95" t="n">
-        <v>52</v>
+        <v>170.5799</v>
       </c>
       <c r="G95" t="n">
-        <v>612.5</v>
+        <v>-518590.2736290699</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>579</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3842,32 +4292,38 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>611</v>
+        <v>598</v>
       </c>
       <c r="C96" t="n">
-        <v>611</v>
+        <v>598</v>
       </c>
       <c r="D96" t="n">
-        <v>611</v>
+        <v>598</v>
       </c>
       <c r="E96" t="n">
-        <v>611</v>
+        <v>598</v>
       </c>
       <c r="F96" t="n">
-        <v>171.79</v>
+        <v>715.9999</v>
       </c>
       <c r="G96" t="n">
-        <v>611.5</v>
+        <v>-517874.2737290699</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>579</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3878,32 +4334,38 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>614</v>
+        <v>598</v>
       </c>
       <c r="C97" t="n">
-        <v>619</v>
+        <v>598</v>
       </c>
       <c r="D97" t="n">
-        <v>619</v>
+        <v>598</v>
       </c>
       <c r="E97" t="n">
-        <v>614</v>
+        <v>598</v>
       </c>
       <c r="F97" t="n">
-        <v>2024.0735</v>
+        <v>508.7599</v>
       </c>
       <c r="G97" t="n">
-        <v>615</v>
+        <v>-517874.2737290699</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>579</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3914,32 +4376,38 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>613</v>
+        <v>596</v>
       </c>
       <c r="C98" t="n">
-        <v>614</v>
+        <v>596</v>
       </c>
       <c r="D98" t="n">
-        <v>614</v>
+        <v>596</v>
       </c>
       <c r="E98" t="n">
-        <v>613</v>
+        <v>596</v>
       </c>
       <c r="F98" t="n">
-        <v>710</v>
+        <v>63</v>
       </c>
       <c r="G98" t="n">
-        <v>616.5</v>
+        <v>-517937.2737290699</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>579</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3950,32 +4418,38 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>612</v>
+        <v>595</v>
       </c>
       <c r="C99" t="n">
-        <v>613</v>
+        <v>595</v>
       </c>
       <c r="D99" t="n">
-        <v>613</v>
+        <v>595</v>
       </c>
       <c r="E99" t="n">
-        <v>612</v>
+        <v>595</v>
       </c>
       <c r="F99" t="n">
-        <v>710</v>
+        <v>217.0562</v>
       </c>
       <c r="G99" t="n">
-        <v>613.5</v>
+        <v>-518154.3299290698</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>579</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3986,32 +4460,38 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>613</v>
+        <v>596</v>
       </c>
       <c r="C100" t="n">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="D100" t="n">
-        <v>613</v>
+        <v>596</v>
       </c>
       <c r="E100" t="n">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="F100" t="n">
-        <v>2946.8444</v>
+        <v>93.12130000000001</v>
       </c>
       <c r="G100" t="n">
-        <v>611</v>
+        <v>-518061.2086290698</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>579</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4022,22 +4502,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>612</v>
+        <v>598</v>
       </c>
       <c r="C101" t="n">
-        <v>612</v>
+        <v>598</v>
       </c>
       <c r="D101" t="n">
-        <v>612</v>
+        <v>598</v>
       </c>
       <c r="E101" t="n">
-        <v>612</v>
+        <v>598</v>
       </c>
       <c r="F101" t="n">
-        <v>81.6993464</v>
+        <v>333.0231</v>
       </c>
       <c r="G101" t="n">
-        <v>610.5</v>
+        <v>-517728.1855290699</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4046,8 +4526,14 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>579</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4058,22 +4544,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>611</v>
+        <v>597</v>
       </c>
       <c r="C102" t="n">
-        <v>610</v>
+        <v>597</v>
       </c>
       <c r="D102" t="n">
-        <v>611</v>
+        <v>597</v>
       </c>
       <c r="E102" t="n">
-        <v>610</v>
+        <v>597</v>
       </c>
       <c r="F102" t="n">
-        <v>1706.5813</v>
+        <v>199</v>
       </c>
       <c r="G102" t="n">
-        <v>611</v>
+        <v>-517927.1855290699</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4082,8 +4568,14 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>579</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4094,22 +4586,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>614</v>
+        <v>598</v>
       </c>
       <c r="C103" t="n">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="D103" t="n">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="E103" t="n">
-        <v>614</v>
+        <v>595</v>
       </c>
       <c r="F103" t="n">
-        <v>10</v>
+        <v>7194.1481</v>
       </c>
       <c r="G103" t="n">
-        <v>612</v>
+        <v>-510733.0374290699</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4118,8 +4610,14 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>579</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4130,32 +4628,38 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="C104" t="n">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="D104" t="n">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="E104" t="n">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="F104" t="n">
-        <v>41.8765</v>
+        <v>2524.81</v>
       </c>
       <c r="G104" t="n">
-        <v>612.5</v>
+        <v>-508208.2274290699</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>579</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4166,22 +4670,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="C105" t="n">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="D105" t="n">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="E105" t="n">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="F105" t="n">
-        <v>1</v>
+        <v>205.9165</v>
       </c>
       <c r="G105" t="n">
-        <v>611</v>
+        <v>-508414.1439290699</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4190,34 +4694,42 @@
         <v>1</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>579</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+        <v>1.058903281519862</v>
+      </c>
+      <c r="N105" t="n">
+        <v>1.010416666666667</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="C106" t="n">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D106" t="n">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="E106" t="n">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="F106" t="n">
-        <v>115.804</v>
+        <v>83.7315</v>
       </c>
       <c r="G106" t="n">
-        <v>613</v>
+        <v>-508414.1439290699</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4238,22 +4750,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C107" t="n">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="D107" t="n">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="E107" t="n">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F107" t="n">
-        <v>574.2101</v>
+        <v>157</v>
       </c>
       <c r="G107" t="n">
-        <v>616</v>
+        <v>-508571.1439290699</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4274,28 +4786,28 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C108" t="n">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D108" t="n">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E108" t="n">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="F108" t="n">
-        <v>627.072</v>
+        <v>333.7315</v>
       </c>
       <c r="G108" t="n">
-        <v>617</v>
+        <v>-508237.4124290699</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
@@ -4310,22 +4822,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C109" t="n">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D109" t="n">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E109" t="n">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F109" t="n">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="G109" t="n">
-        <v>617</v>
+        <v>-508169.4124290699</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4346,22 +4858,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="C110" t="n">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="D110" t="n">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="E110" t="n">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F110" t="n">
-        <v>691.0486</v>
+        <v>42.5029</v>
       </c>
       <c r="G110" t="n">
-        <v>617.5</v>
+        <v>-508211.9153290699</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4382,22 +4894,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="C111" t="n">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="D111" t="n">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="E111" t="n">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="F111" t="n">
-        <v>601.4125</v>
+        <v>539.5</v>
       </c>
       <c r="G111" t="n">
-        <v>618</v>
+        <v>-508751.4153290699</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4418,22 +4930,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="C112" t="n">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="D112" t="n">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="E112" t="n">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="F112" t="n">
-        <v>728.0867</v>
+        <v>500</v>
       </c>
       <c r="G112" t="n">
-        <v>617.5</v>
+        <v>-509251.4153290699</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4454,22 +4966,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="C113" t="n">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="D113" t="n">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="E113" t="n">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="F113" t="n">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="G113" t="n">
-        <v>617</v>
+        <v>-509126.4153290699</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4490,22 +5002,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="C114" t="n">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="D114" t="n">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="E114" t="n">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="F114" t="n">
-        <v>910.6485</v>
+        <v>331.5203</v>
       </c>
       <c r="G114" t="n">
-        <v>618</v>
+        <v>-509457.9356290699</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4526,22 +5038,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="C115" t="n">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="D115" t="n">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="E115" t="n">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="F115" t="n">
-        <v>562</v>
+        <v>73.28749999999999</v>
       </c>
       <c r="G115" t="n">
-        <v>619</v>
+        <v>-509384.6481290699</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4562,22 +5074,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="C116" t="n">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D116" t="n">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="E116" t="n">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="F116" t="n">
-        <v>83.77330000000001</v>
+        <v>1419.8391</v>
       </c>
       <c r="G116" t="n">
-        <v>618</v>
+        <v>-509384.6481290699</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4598,22 +5110,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C117" t="n">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="D117" t="n">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E117" t="n">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="F117" t="n">
-        <v>1123.0964</v>
+        <v>742.0805</v>
       </c>
       <c r="G117" t="n">
-        <v>614.5</v>
+        <v>-508642.5676290699</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4629,6 +5141,1050 @@
       </c>
       <c r="N117" t="inlineStr"/>
     </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>615</v>
+      </c>
+      <c r="C118" t="n">
+        <v>615</v>
+      </c>
+      <c r="D118" t="n">
+        <v>615</v>
+      </c>
+      <c r="E118" t="n">
+        <v>615</v>
+      </c>
+      <c r="F118" t="n">
+        <v>2</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-508642.5676290699</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>1</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>613</v>
+      </c>
+      <c r="C119" t="n">
+        <v>613</v>
+      </c>
+      <c r="D119" t="n">
+        <v>613</v>
+      </c>
+      <c r="E119" t="n">
+        <v>613</v>
+      </c>
+      <c r="F119" t="n">
+        <v>108.4917</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-508751.0593290699</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>1</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>613</v>
+      </c>
+      <c r="C120" t="n">
+        <v>613</v>
+      </c>
+      <c r="D120" t="n">
+        <v>613</v>
+      </c>
+      <c r="E120" t="n">
+        <v>613</v>
+      </c>
+      <c r="F120" t="n">
+        <v>58.858</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-508751.0593290699</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>613</v>
+      </c>
+      <c r="C121" t="n">
+        <v>613</v>
+      </c>
+      <c r="D121" t="n">
+        <v>613</v>
+      </c>
+      <c r="E121" t="n">
+        <v>613</v>
+      </c>
+      <c r="F121" t="n">
+        <v>10</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-508751.0593290699</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>613</v>
+      </c>
+      <c r="C122" t="n">
+        <v>613</v>
+      </c>
+      <c r="D122" t="n">
+        <v>613</v>
+      </c>
+      <c r="E122" t="n">
+        <v>613</v>
+      </c>
+      <c r="F122" t="n">
+        <v>34.11</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-508751.0593290699</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>613</v>
+      </c>
+      <c r="C123" t="n">
+        <v>613</v>
+      </c>
+      <c r="D123" t="n">
+        <v>613</v>
+      </c>
+      <c r="E123" t="n">
+        <v>613</v>
+      </c>
+      <c r="F123" t="n">
+        <v>74.0399</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-508751.0593290699</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>612</v>
+      </c>
+      <c r="C124" t="n">
+        <v>612</v>
+      </c>
+      <c r="D124" t="n">
+        <v>612</v>
+      </c>
+      <c r="E124" t="n">
+        <v>612</v>
+      </c>
+      <c r="F124" t="n">
+        <v>52</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-508803.0593290699</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>611</v>
+      </c>
+      <c r="C125" t="n">
+        <v>611</v>
+      </c>
+      <c r="D125" t="n">
+        <v>611</v>
+      </c>
+      <c r="E125" t="n">
+        <v>611</v>
+      </c>
+      <c r="F125" t="n">
+        <v>171.79</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-508974.8493290699</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>614</v>
+      </c>
+      <c r="C126" t="n">
+        <v>619</v>
+      </c>
+      <c r="D126" t="n">
+        <v>619</v>
+      </c>
+      <c r="E126" t="n">
+        <v>614</v>
+      </c>
+      <c r="F126" t="n">
+        <v>2024.0735</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-506950.7758290699</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>613</v>
+      </c>
+      <c r="C127" t="n">
+        <v>614</v>
+      </c>
+      <c r="D127" t="n">
+        <v>614</v>
+      </c>
+      <c r="E127" t="n">
+        <v>613</v>
+      </c>
+      <c r="F127" t="n">
+        <v>710</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-507660.7758290699</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>612</v>
+      </c>
+      <c r="C128" t="n">
+        <v>613</v>
+      </c>
+      <c r="D128" t="n">
+        <v>613</v>
+      </c>
+      <c r="E128" t="n">
+        <v>612</v>
+      </c>
+      <c r="F128" t="n">
+        <v>710</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-508370.7758290699</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>613</v>
+      </c>
+      <c r="C129" t="n">
+        <v>609</v>
+      </c>
+      <c r="D129" t="n">
+        <v>613</v>
+      </c>
+      <c r="E129" t="n">
+        <v>609</v>
+      </c>
+      <c r="F129" t="n">
+        <v>2946.8444</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-511317.6202290699</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>612</v>
+      </c>
+      <c r="C130" t="n">
+        <v>612</v>
+      </c>
+      <c r="D130" t="n">
+        <v>612</v>
+      </c>
+      <c r="E130" t="n">
+        <v>612</v>
+      </c>
+      <c r="F130" t="n">
+        <v>81.6993464</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-511235.9208826699</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>611</v>
+      </c>
+      <c r="C131" t="n">
+        <v>610</v>
+      </c>
+      <c r="D131" t="n">
+        <v>611</v>
+      </c>
+      <c r="E131" t="n">
+        <v>610</v>
+      </c>
+      <c r="F131" t="n">
+        <v>1706.5813</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-512942.5021826699</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>614</v>
+      </c>
+      <c r="C132" t="n">
+        <v>614</v>
+      </c>
+      <c r="D132" t="n">
+        <v>614</v>
+      </c>
+      <c r="E132" t="n">
+        <v>614</v>
+      </c>
+      <c r="F132" t="n">
+        <v>10</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-512932.5021826699</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>611</v>
+      </c>
+      <c r="C133" t="n">
+        <v>611</v>
+      </c>
+      <c r="D133" t="n">
+        <v>611</v>
+      </c>
+      <c r="E133" t="n">
+        <v>611</v>
+      </c>
+      <c r="F133" t="n">
+        <v>41.8765</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-512974.37868267</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>611</v>
+      </c>
+      <c r="C134" t="n">
+        <v>611</v>
+      </c>
+      <c r="D134" t="n">
+        <v>611</v>
+      </c>
+      <c r="E134" t="n">
+        <v>611</v>
+      </c>
+      <c r="F134" t="n">
+        <v>1</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-512974.37868267</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>614</v>
+      </c>
+      <c r="C135" t="n">
+        <v>615</v>
+      </c>
+      <c r="D135" t="n">
+        <v>615</v>
+      </c>
+      <c r="E135" t="n">
+        <v>614</v>
+      </c>
+      <c r="F135" t="n">
+        <v>115.804</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-512858.5746826699</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>615</v>
+      </c>
+      <c r="C136" t="n">
+        <v>617</v>
+      </c>
+      <c r="D136" t="n">
+        <v>617</v>
+      </c>
+      <c r="E136" t="n">
+        <v>615</v>
+      </c>
+      <c r="F136" t="n">
+        <v>574.2101</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-512284.3645826699</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>616</v>
+      </c>
+      <c r="C137" t="n">
+        <v>617</v>
+      </c>
+      <c r="D137" t="n">
+        <v>617</v>
+      </c>
+      <c r="E137" t="n">
+        <v>616</v>
+      </c>
+      <c r="F137" t="n">
+        <v>627.072</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-512284.3645826699</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>617</v>
+      </c>
+      <c r="C138" t="n">
+        <v>617</v>
+      </c>
+      <c r="D138" t="n">
+        <v>617</v>
+      </c>
+      <c r="E138" t="n">
+        <v>617</v>
+      </c>
+      <c r="F138" t="n">
+        <v>5</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-512284.3645826699</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>619</v>
+      </c>
+      <c r="C139" t="n">
+        <v>618</v>
+      </c>
+      <c r="D139" t="n">
+        <v>619</v>
+      </c>
+      <c r="E139" t="n">
+        <v>618</v>
+      </c>
+      <c r="F139" t="n">
+        <v>691.0486</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-511593.3159826699</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>618</v>
+      </c>
+      <c r="C140" t="n">
+        <v>618</v>
+      </c>
+      <c r="D140" t="n">
+        <v>618</v>
+      </c>
+      <c r="E140" t="n">
+        <v>618</v>
+      </c>
+      <c r="F140" t="n">
+        <v>601.4125</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-511593.3159826699</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>617</v>
+      </c>
+      <c r="C141" t="n">
+        <v>617</v>
+      </c>
+      <c r="D141" t="n">
+        <v>617</v>
+      </c>
+      <c r="E141" t="n">
+        <v>617</v>
+      </c>
+      <c r="F141" t="n">
+        <v>728.0867</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-512321.4026826699</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>617</v>
+      </c>
+      <c r="C142" t="n">
+        <v>617</v>
+      </c>
+      <c r="D142" t="n">
+        <v>617</v>
+      </c>
+      <c r="E142" t="n">
+        <v>617</v>
+      </c>
+      <c r="F142" t="n">
+        <v>80</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-512321.4026826699</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>619</v>
+      </c>
+      <c r="C143" t="n">
+        <v>619</v>
+      </c>
+      <c r="D143" t="n">
+        <v>619</v>
+      </c>
+      <c r="E143" t="n">
+        <v>619</v>
+      </c>
+      <c r="F143" t="n">
+        <v>910.6485</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-511410.7541826699</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>619</v>
+      </c>
+      <c r="C144" t="n">
+        <v>619</v>
+      </c>
+      <c r="D144" t="n">
+        <v>619</v>
+      </c>
+      <c r="E144" t="n">
+        <v>619</v>
+      </c>
+      <c r="F144" t="n">
+        <v>562</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-511410.7541826699</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>617</v>
+      </c>
+      <c r="C145" t="n">
+        <v>617</v>
+      </c>
+      <c r="D145" t="n">
+        <v>617</v>
+      </c>
+      <c r="E145" t="n">
+        <v>617</v>
+      </c>
+      <c r="F145" t="n">
+        <v>83.77330000000001</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-511494.5274826699</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>617</v>
+      </c>
+      <c r="C146" t="n">
+        <v>612</v>
+      </c>
+      <c r="D146" t="n">
+        <v>617</v>
+      </c>
+      <c r="E146" t="n">
+        <v>612</v>
+      </c>
+      <c r="F146" t="n">
+        <v>1123.0964</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-512617.6238826699</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-11-20 BackTest PPT.xlsx
+++ b/BackTest/2019-11-20 BackTest PPT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N146"/>
+  <dimension ref="A1:M146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-526802.1237999999</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,19 @@
         <v>-526802.1237999999</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
+        <v>577</v>
+      </c>
+      <c r="J3" t="n">
+        <v>577</v>
+      </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +523,19 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>577</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +562,19 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>577</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +601,19 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>577</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +640,19 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>577</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +679,19 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>577</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +718,19 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>577</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +757,19 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>577</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +796,19 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>577</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +835,19 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>577</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +874,19 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>577</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +913,19 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>577</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -924,18 +950,23 @@
         <v>-527048.0741</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+        <v>576</v>
+      </c>
+      <c r="J15" t="n">
+        <v>577</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -960,18 +991,23 @@
         <v>-527048.0741</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+        <v>576</v>
+      </c>
+      <c r="J16" t="n">
+        <v>577</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -996,18 +1032,23 @@
         <v>-523720.9185</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+        <v>576</v>
+      </c>
+      <c r="J17" t="n">
+        <v>577</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1032,18 +1073,23 @@
         <v>-521970.9185</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+        <v>578</v>
+      </c>
+      <c r="J18" t="n">
+        <v>577</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1068,22 +1114,23 @@
         <v>-521970.9185</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>579</v>
       </c>
       <c r="J19" t="n">
-        <v>579</v>
-      </c>
-      <c r="K19" t="n">
-        <v>579</v>
-      </c>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+        <v>577</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1108,26 +1155,21 @@
         <v>-521970.9185</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
-        <v>579</v>
-      </c>
-      <c r="K20" t="n">
-        <v>579</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+        <v>577</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1152,26 +1194,23 @@
         <v>-521488.5655</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>579</v>
       </c>
       <c r="J21" t="n">
-        <v>579</v>
-      </c>
-      <c r="K21" t="n">
-        <v>579</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+        <v>577</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1196,26 +1235,21 @@
         <v>-521880.9947</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
-        <v>582</v>
-      </c>
-      <c r="K22" t="n">
-        <v>579</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+        <v>577</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1240,26 +1274,21 @@
         <v>-521880.0947</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
-        <v>579</v>
-      </c>
-      <c r="K23" t="n">
-        <v>579</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+        <v>577</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1284,26 +1313,21 @@
         <v>-521890.0947</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
-        <v>587</v>
-      </c>
-      <c r="K24" t="n">
-        <v>579</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+        <v>577</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1330,22 +1354,19 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>579</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>577</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1372,22 +1393,19 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>579</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>577</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1414,22 +1432,19 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>579</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>577</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1456,22 +1471,19 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>579</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>577</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1496,24 +1508,23 @@
         <v>-523550.3446</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>579</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+        <v>580</v>
+      </c>
+      <c r="J29" t="n">
+        <v>577</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1540,22 +1551,19 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>579</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>577</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1582,22 +1590,19 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>579</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>577</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1624,22 +1629,19 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>579</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>577</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1666,22 +1668,19 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>579</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>577</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1708,22 +1707,19 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>579</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>577</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1750,22 +1746,19 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>579</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>577</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1792,22 +1785,19 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>579</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>577</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1834,22 +1824,19 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>579</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>577</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1876,22 +1863,19 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>579</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>577</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1918,22 +1902,19 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>579</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>577</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1960,22 +1941,19 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>579</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>577</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2002,22 +1980,19 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>579</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>577</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2044,22 +2019,19 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>579</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>577</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2086,22 +2058,19 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>579</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>577</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2128,22 +2097,19 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>579</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>577</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2170,22 +2136,19 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>579</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>577</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2212,22 +2175,19 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>579</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>577</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2254,22 +2214,19 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>579</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>577</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2296,22 +2253,19 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>579</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>577</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2338,22 +2292,19 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>579</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>577</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2380,22 +2331,19 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>579</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>577</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2422,22 +2370,19 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>579</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>577</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2464,22 +2409,19 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>579</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>577</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2506,22 +2448,19 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>579</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>577</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2548,22 +2487,19 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>579</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>577</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2590,22 +2526,19 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>579</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>577</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2632,22 +2565,19 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>579</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>577</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2674,22 +2604,19 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>579</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>577</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2716,22 +2643,19 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>579</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>577</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2758,22 +2682,19 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>579</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>577</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2800,22 +2721,19 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>579</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>577</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2842,22 +2760,19 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>579</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>577</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2884,22 +2799,19 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>579</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>577</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2926,22 +2838,19 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>579</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>577</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2968,22 +2877,19 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>579</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>577</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3010,22 +2916,19 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>579</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>577</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3052,22 +2955,19 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>579</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>577</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3094,22 +2994,19 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>579</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>577</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3136,22 +3033,19 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>579</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>577</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3178,22 +3072,19 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>579</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>577</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3220,22 +3111,19 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>579</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>577</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3260,24 +3148,23 @@
         <v>-521073.2433</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>579</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+        <v>596</v>
+      </c>
+      <c r="J71" t="n">
+        <v>577</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3302,24 +3189,21 @@
         <v>-520500.4133</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>579</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>577</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3346,22 +3230,19 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>579</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>577</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3386,24 +3267,21 @@
         <v>-520500.4133</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>579</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>577</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3430,22 +3308,19 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>579</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>577</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3472,22 +3347,19 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>579</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>577</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3514,22 +3386,19 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>579</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>577</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3556,22 +3425,19 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>579</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>577</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3598,22 +3464,19 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>579</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>577</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3638,24 +3501,23 @@
         <v>-519544.5598999999</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>579</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+        <v>591</v>
+      </c>
+      <c r="J80" t="n">
+        <v>577</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3682,22 +3544,19 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>579</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>577</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3724,22 +3583,19 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>579</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>577</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3766,22 +3622,19 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>579</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>577</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3808,22 +3661,19 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>579</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>577</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3850,22 +3700,19 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>579</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>577</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3892,22 +3739,19 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>579</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>577</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3932,24 +3776,21 @@
         <v>-518037.3699290699</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>579</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>577</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3976,22 +3817,19 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>579</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>577</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4016,24 +3854,21 @@
         <v>-517044.1869290699</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>579</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>577</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4058,24 +3893,21 @@
         <v>-516950.1869290699</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>579</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>577</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4102,22 +3934,19 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>579</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>577</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4144,22 +3973,19 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>579</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>577</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4186,22 +4012,19 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>579</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>577</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4228,22 +4051,19 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>579</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>577</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4270,22 +4090,19 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>579</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>577</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4312,22 +4129,19 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>579</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>577</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4352,24 +4166,21 @@
         <v>-517874.2737290699</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>579</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>577</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4394,24 +4205,21 @@
         <v>-517937.2737290699</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>579</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>577</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4438,22 +4246,19 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>579</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>577</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4480,22 +4285,19 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>579</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>577</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4522,22 +4324,19 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>579</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>577</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4562,24 +4361,21 @@
         <v>-517927.1855290699</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>579</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>577</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4606,22 +4402,19 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>579</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>577</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4648,22 +4441,19 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>579</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>577</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4688,26 +4478,21 @@
         <v>-508414.1439290699</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>1</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>579</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1.058903281519862</v>
-      </c>
-      <c r="N105" t="n">
-        <v>1.010416666666667</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>577</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4732,18 +4517,21 @@
         <v>-508414.1439290699</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>1</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>577</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4768,18 +4556,23 @@
         <v>-508571.1439290699</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>1</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>577</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1.057391681109185</v>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
-      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4804,18 +4597,15 @@
         <v>-508237.4124290699</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4840,18 +4630,15 @@
         <v>-508169.4124290699</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4878,16 +4665,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>1</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4914,16 +4698,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>1</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4950,16 +4731,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>1</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4986,16 +4764,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>1</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -5022,16 +4797,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>1</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5058,16 +4830,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>1</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5094,16 +4863,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>1</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5130,16 +4896,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>1</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5166,16 +4929,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>1</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5202,16 +4962,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>1</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5238,16 +4995,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5274,16 +5028,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5310,16 +5061,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5346,16 +5094,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5382,16 +5127,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5418,16 +5160,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5454,16 +5193,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5488,18 +5224,15 @@
         <v>-507660.7758290699</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5524,18 +5257,15 @@
         <v>-508370.7758290699</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5560,18 +5290,15 @@
         <v>-511317.6202290699</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5598,16 +5325,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5634,16 +5358,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5670,16 +5391,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5704,18 +5422,15 @@
         <v>-512974.37868267</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5742,16 +5457,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5778,16 +5490,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5814,16 +5523,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5850,16 +5556,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5886,16 +5589,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5922,16 +5622,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5958,16 +5655,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5994,16 +5688,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6030,16 +5721,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6066,16 +5754,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6100,18 +5785,15 @@
         <v>-511410.7541826699</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6138,16 +5820,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6174,18 +5853,15 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-20 BackTest PPT.xlsx
+++ b/BackTest/2019-11-20 BackTest PPT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-526802.1237999999</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>-526802.1237999999</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>577</v>
-      </c>
-      <c r="J3" t="n">
-        <v>577</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -524,14 +520,8 @@
         <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="n">
-        <v>577</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -563,14 +553,8 @@
         <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
-        <v>577</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -602,14 +586,8 @@
         <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="n">
-        <v>577</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -641,14 +619,8 @@
         <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>577</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -680,14 +652,8 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>577</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -719,14 +685,8 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>577</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -758,14 +718,8 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>577</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -797,14 +751,8 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>577</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -836,14 +784,8 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>577</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -875,14 +817,8 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>577</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -914,14 +850,8 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>577</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -950,19 +880,11 @@
         <v>-527048.0741</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>576</v>
-      </c>
-      <c r="J15" t="n">
-        <v>577</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -991,19 +913,11 @@
         <v>-527048.0741</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>576</v>
-      </c>
-      <c r="J16" t="n">
-        <v>577</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1032,19 +946,11 @@
         <v>-523720.9185</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" t="n">
-        <v>576</v>
-      </c>
-      <c r="J17" t="n">
-        <v>577</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1073,19 +979,11 @@
         <v>-521970.9185</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" t="n">
-        <v>578</v>
-      </c>
-      <c r="J18" t="n">
-        <v>577</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1114,19 +1012,11 @@
         <v>-521970.9185</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" t="n">
-        <v>579</v>
-      </c>
-      <c r="J19" t="n">
-        <v>577</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1158,14 +1048,8 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>577</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1194,19 +1078,11 @@
         <v>-521488.5655</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I21" t="n">
-        <v>579</v>
-      </c>
-      <c r="J21" t="n">
-        <v>577</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1238,14 +1114,8 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>577</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1277,14 +1147,8 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>577</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1316,14 +1180,8 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>577</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1355,14 +1213,8 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>577</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1394,14 +1246,8 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>577</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1433,14 +1279,8 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>577</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1472,14 +1312,8 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>577</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1508,19 +1342,11 @@
         <v>-523550.3446</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
-      </c>
-      <c r="I29" t="n">
-        <v>580</v>
-      </c>
-      <c r="J29" t="n">
-        <v>577</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1552,14 +1378,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>577</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1591,14 +1411,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>577</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1630,14 +1444,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>577</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1669,14 +1477,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>577</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1708,14 +1510,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>577</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1747,14 +1543,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>577</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1786,14 +1576,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>577</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1825,14 +1609,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>577</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1864,14 +1642,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>577</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1903,14 +1675,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>577</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1942,14 +1708,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>577</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1981,14 +1741,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>577</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2020,14 +1774,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>577</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2059,14 +1807,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>577</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2098,14 +1840,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>577</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2137,14 +1873,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>577</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2176,14 +1906,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>577</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2215,14 +1939,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>577</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2254,14 +1972,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>577</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2293,14 +2005,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>577</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2332,14 +2038,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>577</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2371,14 +2071,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>577</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2410,14 +2104,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>577</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2449,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>577</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2488,14 +2170,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>577</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2527,14 +2203,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>577</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2566,14 +2236,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>577</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2605,14 +2269,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>577</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2644,14 +2302,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>577</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2683,14 +2335,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>577</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2722,14 +2368,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>577</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2761,14 +2401,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>577</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2800,14 +2434,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>577</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2839,14 +2467,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>577</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2878,14 +2500,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>577</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2917,14 +2533,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>577</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2953,17 +2563,15 @@
         <v>-520728.6881</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>598</v>
+      </c>
       <c r="J66" t="n">
-        <v>577</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>598</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2992,15 +2600,17 @@
         <v>-521073.2433</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>597</v>
+      </c>
       <c r="J67" t="n">
-        <v>577</v>
+        <v>598</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L67" t="n">
@@ -3031,15 +2641,17 @@
         <v>-521073.2433</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>596</v>
+      </c>
       <c r="J68" t="n">
-        <v>577</v>
+        <v>598</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L68" t="n">
@@ -3070,17 +2682,15 @@
         <v>-521073.2433</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>596</v>
+      </c>
       <c r="J69" t="n">
-        <v>577</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>596</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3109,15 +2719,17 @@
         <v>-521073.2433</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>596</v>
+      </c>
       <c r="J70" t="n">
-        <v>577</v>
+        <v>596</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L70" t="n">
@@ -3148,17 +2760,15 @@
         <v>-521073.2433</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
-      </c>
-      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
         <v>596</v>
       </c>
-      <c r="J71" t="n">
-        <v>577</v>
-      </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L71" t="n">
@@ -3189,17 +2799,11 @@
         <v>-520500.4133</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>577</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3231,14 +2835,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>577</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3267,17 +2865,11 @@
         <v>-520500.4133</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>577</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3309,14 +2901,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>577</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3348,14 +2934,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>577</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3384,17 +2964,15 @@
         <v>-520790.2524999999</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>594</v>
+      </c>
       <c r="J77" t="n">
-        <v>577</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>594</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3423,15 +3001,17 @@
         <v>-518636.5162</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>594</v>
+      </c>
       <c r="J78" t="n">
-        <v>577</v>
+        <v>594</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L78" t="n">
@@ -3462,11 +3042,13 @@
         <v>-519813.5598999999</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>595</v>
+      </c>
       <c r="J79" t="n">
-        <v>577</v>
+        <v>594</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3501,13 +3083,13 @@
         <v>-519544.5598999999</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>591</v>
       </c>
       <c r="J80" t="n">
-        <v>577</v>
+        <v>594</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3542,11 +3124,13 @@
         <v>-516673.8344290699</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>596</v>
+      </c>
       <c r="J81" t="n">
-        <v>577</v>
+        <v>594</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3585,7 +3169,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>577</v>
+        <v>594</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3624,7 +3208,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>577</v>
+        <v>594</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3663,7 +3247,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>577</v>
+        <v>594</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3702,7 +3286,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>577</v>
+        <v>594</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3737,11 +3321,13 @@
         <v>-518037.3699290699</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>598</v>
+      </c>
       <c r="J86" t="n">
-        <v>577</v>
+        <v>594</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3778,9 +3364,11 @@
       <c r="H87" t="n">
         <v>1</v>
       </c>
-      <c r="I87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>597</v>
+      </c>
       <c r="J87" t="n">
-        <v>577</v>
+        <v>594</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3819,7 +3407,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>577</v>
+        <v>594</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3854,11 +3442,11 @@
         <v>-517044.1869290699</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>577</v>
+        <v>594</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3893,11 +3481,11 @@
         <v>-516950.1869290699</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>577</v>
+        <v>594</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3936,7 +3524,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>577</v>
+        <v>594</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3975,7 +3563,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>577</v>
+        <v>594</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -4014,7 +3602,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>577</v>
+        <v>594</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -4053,7 +3641,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>577</v>
+        <v>594</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -4092,7 +3680,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>577</v>
+        <v>594</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -4131,7 +3719,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>577</v>
+        <v>594</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -4166,11 +3754,11 @@
         <v>-517874.2737290699</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>577</v>
+        <v>594</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -4205,11 +3793,11 @@
         <v>-517937.2737290699</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>577</v>
+        <v>594</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -4248,7 +3836,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>577</v>
+        <v>594</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -4287,7 +3875,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>577</v>
+        <v>594</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -4326,7 +3914,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>577</v>
+        <v>594</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4361,11 +3949,11 @@
         <v>-517927.1855290699</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>577</v>
+        <v>594</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4404,7 +3992,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>577</v>
+        <v>594</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4443,7 +4031,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>577</v>
+        <v>594</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4478,11 +4066,11 @@
         <v>-508414.1439290699</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>577</v>
+        <v>594</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4517,11 +4105,11 @@
         <v>-508414.1439290699</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>577</v>
+        <v>594</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4556,23 +4144,21 @@
         <v>-508571.1439290699</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>577</v>
+        <v>594</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L107" t="n">
-        <v>1.057391681109185</v>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4597,11 +4183,17 @@
         <v>-508237.4124290699</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>594</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4630,11 +4222,17 @@
         <v>-508169.4124290699</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>594</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4666,8 +4264,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>594</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4699,8 +4303,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>594</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4732,8 +4342,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>594</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4765,8 +4381,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>594</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4798,8 +4420,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>594</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4831,8 +4459,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>594</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4864,8 +4498,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>594</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4897,8 +4537,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>594</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4930,8 +4576,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>594</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4963,8 +4615,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>594</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4996,8 +4654,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>594</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5029,8 +4693,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>594</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5062,8 +4732,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>594</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5095,8 +4771,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>594</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5128,8 +4810,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>594</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5161,8 +4849,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>594</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5194,8 +4888,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>594</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5224,11 +4924,17 @@
         <v>-507660.7758290699</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>594</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5257,11 +4963,17 @@
         <v>-508370.7758290699</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>594</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5290,11 +5002,17 @@
         <v>-511317.6202290699</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>594</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5326,8 +5044,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>594</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5359,8 +5083,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>594</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5392,8 +5122,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>594</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5422,11 +5158,17 @@
         <v>-512974.37868267</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>594</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5458,8 +5200,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>594</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5491,8 +5239,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>594</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5524,8 +5278,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>594</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5557,8 +5317,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>594</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5590,8 +5356,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>594</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5623,8 +5395,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>594</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5656,8 +5434,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>594</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5689,8 +5473,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>594</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5719,13 +5509,19 @@
         <v>-512321.4026826699</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>594</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L142" t="n">
-        <v>1</v>
+        <v>1.033720538720539</v>
       </c>
       <c r="M142" t="inlineStr"/>
     </row>
@@ -5752,7 +5548,7 @@
         <v>-511410.7541826699</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5785,7 +5581,7 @@
         <v>-511410.7541826699</v>
       </c>
       <c r="H144" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5818,7 +5614,7 @@
         <v>-511494.5274826699</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5851,7 +5647,7 @@
         <v>-512617.6238826699</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5862,6 +5658,6 @@
       <c r="M146" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-20 BackTest PPT.xlsx
+++ b/BackTest/2019-11-20 BackTest PPT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1705,7 +1705,7 @@
         <v>-526770.9285</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-525397.4555</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-524069.6423000001</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-525040.792</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-523147.5637</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-523147.5637</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-519852.1512</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2563,14 +2563,10 @@
         <v>-520728.6881</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>598</v>
-      </c>
-      <c r="J66" t="n">
-        <v>598</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
@@ -2600,19 +2596,11 @@
         <v>-521073.2433</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>597</v>
-      </c>
-      <c r="J67" t="n">
-        <v>598</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2641,19 +2629,11 @@
         <v>-521073.2433</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>596</v>
-      </c>
-      <c r="J68" t="n">
-        <v>598</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2682,14 +2662,10 @@
         <v>-521073.2433</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>596</v>
-      </c>
-      <c r="J69" t="n">
-        <v>596</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
@@ -2719,19 +2695,11 @@
         <v>-521073.2433</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>596</v>
-      </c>
-      <c r="J70" t="n">
-        <v>596</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2763,14 +2731,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>596</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2964,14 +2926,10 @@
         <v>-520790.2524999999</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>594</v>
-      </c>
-      <c r="J77" t="n">
-        <v>594</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
@@ -3001,19 +2959,11 @@
         <v>-518636.5162</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>594</v>
-      </c>
-      <c r="J78" t="n">
-        <v>594</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3042,19 +2992,11 @@
         <v>-519813.5598999999</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>595</v>
-      </c>
-      <c r="J79" t="n">
-        <v>594</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3083,19 +3025,11 @@
         <v>-519544.5598999999</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>591</v>
-      </c>
-      <c r="J80" t="n">
-        <v>594</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3124,19 +3058,11 @@
         <v>-516673.8344290699</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>596</v>
-      </c>
-      <c r="J81" t="n">
-        <v>594</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3168,14 +3094,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>594</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3207,14 +3127,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>594</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3246,14 +3160,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>594</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3285,14 +3193,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>594</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3321,19 +3223,11 @@
         <v>-518037.3699290699</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>598</v>
-      </c>
-      <c r="J86" t="n">
-        <v>594</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3362,19 +3256,11 @@
         <v>-518037.3699290699</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>597</v>
-      </c>
-      <c r="J87" t="n">
-        <v>594</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3406,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>594</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3445,14 +3325,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>594</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3484,14 +3358,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>594</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3523,14 +3391,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>594</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3559,15 +3421,15 @@
         <v>-518419.6937290698</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>594</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>599</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L92" t="n">
@@ -3601,9 +3463,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>594</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3640,9 +3500,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>594</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3679,9 +3537,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>594</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3718,9 +3574,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>594</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3757,9 +3611,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>594</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3796,9 +3648,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>594</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3835,9 +3685,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>594</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3874,9 +3722,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>594</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3913,9 +3759,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>594</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3952,9 +3796,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>594</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3991,9 +3833,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>594</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4030,9 +3870,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>594</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4069,9 +3907,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>594</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4108,9 +3944,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>594</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4147,9 +3981,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>594</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4186,9 +4018,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>594</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4225,9 +4055,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>594</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4264,9 +4092,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>594</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4303,9 +4129,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>594</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4342,9 +4166,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>594</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4381,9 +4203,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>594</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4420,9 +4240,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>594</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4459,9 +4277,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>594</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4498,9 +4314,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>594</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4537,9 +4351,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>594</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4576,9 +4388,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>594</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4615,9 +4425,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>594</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4654,9 +4462,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>594</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4693,9 +4499,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>594</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4732,9 +4536,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>594</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4771,9 +4573,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>594</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4810,9 +4610,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>594</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4849,9 +4647,7 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>594</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4888,9 +4684,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>594</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4927,9 +4721,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>594</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4966,9 +4758,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>594</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5005,9 +4795,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>594</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5044,9 +4832,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>594</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5083,9 +4869,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>594</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5122,9 +4906,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>594</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5161,9 +4943,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>594</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5200,9 +4980,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>594</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5239,9 +5017,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>594</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5278,9 +5054,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>594</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5317,9 +5091,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>594</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5356,9 +5128,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>594</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5395,9 +5165,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>594</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5434,9 +5202,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>594</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5473,9 +5239,7 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>594</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5509,19 +5273,17 @@
         <v>-512321.4026826699</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>594</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L142" t="n">
-        <v>1.033720538720539</v>
+        <v>1</v>
       </c>
       <c r="M142" t="inlineStr"/>
     </row>
@@ -5548,11 +5310,15 @@
         <v>-511410.7541826699</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5581,11 +5347,15 @@
         <v>-511410.7541826699</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5614,11 +5384,15 @@
         <v>-511494.5274826699</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5647,17 +5421,21 @@
         <v>-512617.6238826699</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
       <c r="M146" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-20 BackTest PPT.xlsx
+++ b/BackTest/2019-11-20 BackTest PPT.xlsx
@@ -1705,7 +1705,7 @@
         <v>-526770.9285</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-525397.4555</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-524069.6423000001</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-525040.792</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-523147.5637</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-523147.5637</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-519852.1512</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2563,10 +2563,14 @@
         <v>-520728.6881</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>598</v>
+      </c>
+      <c r="J66" t="n">
+        <v>598</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
@@ -2596,11 +2600,19 @@
         <v>-521073.2433</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>597</v>
+      </c>
+      <c r="J67" t="n">
+        <v>598</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2629,11 +2641,19 @@
         <v>-521073.2433</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>596</v>
+      </c>
+      <c r="J68" t="n">
+        <v>598</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2662,10 +2682,14 @@
         <v>-521073.2433</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>596</v>
+      </c>
+      <c r="J69" t="n">
+        <v>596</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
@@ -2695,11 +2719,19 @@
         <v>-521073.2433</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>596</v>
+      </c>
+      <c r="J70" t="n">
+        <v>596</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2728,11 +2760,19 @@
         <v>-521073.2433</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>596</v>
+      </c>
+      <c r="J71" t="n">
+        <v>596</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2761,10 +2801,14 @@
         <v>-520500.4133</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>596</v>
+      </c>
+      <c r="J72" t="n">
+        <v>596</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
@@ -2797,8 +2841,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>596</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2830,8 +2880,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>596</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2893,10 +2949,14 @@
         <v>-520790.2524999999</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>591</v>
+      </c>
+      <c r="J76" t="n">
+        <v>591</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
@@ -2926,11 +2986,19 @@
         <v>-520790.2524999999</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>594</v>
+      </c>
+      <c r="J77" t="n">
+        <v>591</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2959,11 +3027,19 @@
         <v>-518636.5162</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>594</v>
+      </c>
+      <c r="J78" t="n">
+        <v>591</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2992,11 +3068,19 @@
         <v>-519813.5598999999</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>595</v>
+      </c>
+      <c r="J79" t="n">
+        <v>591</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3025,11 +3109,19 @@
         <v>-519544.5598999999</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>591</v>
+      </c>
+      <c r="J80" t="n">
+        <v>591</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3061,8 +3153,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>591</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3094,8 +3192,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>591</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3127,8 +3231,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>591</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3160,8 +3270,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>591</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3193,8 +3309,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>591</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3226,8 +3348,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>591</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3259,8 +3387,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>591</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3292,8 +3426,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>591</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3325,8 +3465,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>591</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3358,8 +3504,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>591</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3391,8 +3543,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>591</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3421,15 +3579,15 @@
         <v>-518419.6937290698</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>599</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>591</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L92" t="n">
@@ -3463,7 +3621,9 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>591</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3500,7 +3660,9 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>591</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3537,7 +3699,9 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>591</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3574,7 +3738,9 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>591</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3611,7 +3777,9 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>591</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3648,7 +3816,9 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>591</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3685,7 +3855,9 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>591</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3722,7 +3894,9 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>591</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3759,7 +3933,9 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>591</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3796,7 +3972,9 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>591</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3833,7 +4011,9 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>591</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3870,7 +4050,9 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>591</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3904,17 +4086,19 @@
         <v>-508414.1439290699</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>591</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L105" t="n">
-        <v>1</v>
+        <v>1.037301184433164</v>
       </c>
       <c r="M105" t="inlineStr"/>
     </row>
@@ -3941,15 +4125,11 @@
         <v>-508414.1439290699</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3978,15 +4158,11 @@
         <v>-508571.1439290699</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4015,15 +4191,11 @@
         <v>-508237.4124290699</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4052,15 +4224,11 @@
         <v>-508169.4124290699</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4089,15 +4257,11 @@
         <v>-508211.9153290699</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4126,15 +4290,11 @@
         <v>-508751.4153290699</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4163,15 +4323,11 @@
         <v>-509251.4153290699</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4200,15 +4356,11 @@
         <v>-509126.4153290699</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4241,11 +4393,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4278,11 +4426,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4311,15 +4455,11 @@
         <v>-509384.6481290699</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4348,15 +4488,11 @@
         <v>-508642.5676290699</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4385,15 +4521,11 @@
         <v>-508642.5676290699</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4422,15 +4554,11 @@
         <v>-508751.0593290699</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4459,15 +4587,11 @@
         <v>-508751.0593290699</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4496,15 +4620,11 @@
         <v>-508751.0593290699</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4533,15 +4653,11 @@
         <v>-508751.0593290699</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4574,11 +4690,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4611,11 +4723,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4648,11 +4756,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4685,11 +4789,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4718,15 +4818,11 @@
         <v>-507660.7758290699</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4759,11 +4855,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4796,11 +4888,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4833,11 +4921,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4870,11 +4954,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4907,11 +4987,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4940,15 +5016,11 @@
         <v>-512974.37868267</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4977,15 +5049,11 @@
         <v>-512974.37868267</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5014,15 +5082,11 @@
         <v>-512858.5746826699</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5051,15 +5115,11 @@
         <v>-512284.3645826699</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5088,15 +5148,11 @@
         <v>-512284.3645826699</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5125,15 +5181,11 @@
         <v>-512284.3645826699</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5162,15 +5214,11 @@
         <v>-511593.3159826699</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5199,15 +5247,11 @@
         <v>-511593.3159826699</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5236,15 +5280,11 @@
         <v>-512321.4026826699</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5273,15 +5313,11 @@
         <v>-512321.4026826699</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5310,15 +5346,11 @@
         <v>-511410.7541826699</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5347,15 +5379,11 @@
         <v>-511410.7541826699</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5384,15 +5412,11 @@
         <v>-511494.5274826699</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5421,15 +5445,11 @@
         <v>-512617.6238826699</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-11-20 BackTest PPT.xlsx
+++ b/BackTest/2019-11-20 BackTest PPT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M146"/>
+  <dimension ref="A1:L146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>774400</v>
       </c>
       <c r="G2" t="n">
-        <v>-526802.1237999999</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>796800</v>
       </c>
       <c r="G3" t="n">
-        <v>-526802.1237999999</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>787200</v>
       </c>
       <c r="G4" t="n">
-        <v>-526802.1237999999</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>787200</v>
       </c>
       <c r="G5" t="n">
-        <v>-526802.1237999999</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>784000</v>
       </c>
       <c r="G6" t="n">
-        <v>-526802.1237999999</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>761600</v>
       </c>
       <c r="G7" t="n">
-        <v>-526802.1237999999</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>771200</v>
       </c>
       <c r="G8" t="n">
-        <v>-526802.1237999999</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,19 @@
         <v>774400</v>
       </c>
       <c r="G9" t="n">
-        <v>-526802.1237999999</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>577</v>
+      </c>
+      <c r="I9" t="n">
+        <v>577</v>
+      </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +687,23 @@
         <v>777600</v>
       </c>
       <c r="G10" t="n">
-        <v>-526802.1237999999</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>577</v>
+      </c>
+      <c r="I10" t="n">
+        <v>577</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +725,23 @@
         <v>761600</v>
       </c>
       <c r="G11" t="n">
-        <v>-526802.1237999999</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>577</v>
+      </c>
+      <c r="I11" t="n">
+        <v>577</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +763,19 @@
         <v>77597</v>
       </c>
       <c r="G12" t="n">
-        <v>-526802.1237999999</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>577</v>
+      </c>
+      <c r="I12" t="n">
+        <v>577</v>
+      </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +797,23 @@
         <v>245.9503</v>
       </c>
       <c r="G13" t="n">
-        <v>-527048.0741</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>577</v>
+      </c>
+      <c r="I13" t="n">
+        <v>577</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +835,23 @@
         <v>73.73</v>
       </c>
       <c r="G14" t="n">
-        <v>-527048.0741</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>576</v>
+      </c>
+      <c r="I14" t="n">
+        <v>577</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +873,23 @@
         <v>1815.4577</v>
       </c>
       <c r="G15" t="n">
-        <v>-527048.0741</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>576</v>
+      </c>
+      <c r="I15" t="n">
+        <v>577</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +911,23 @@
         <v>3712.8692</v>
       </c>
       <c r="G16" t="n">
-        <v>-527048.0741</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>576</v>
+      </c>
+      <c r="I16" t="n">
+        <v>577</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +949,23 @@
         <v>3327.1556</v>
       </c>
       <c r="G17" t="n">
-        <v>-523720.9185</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>576</v>
+      </c>
+      <c r="I17" t="n">
+        <v>577</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +987,23 @@
         <v>1750</v>
       </c>
       <c r="G18" t="n">
-        <v>-521970.9185</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>578</v>
+      </c>
+      <c r="I18" t="n">
+        <v>577</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +1025,23 @@
         <v>376</v>
       </c>
       <c r="G19" t="n">
-        <v>-521970.9185</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>579</v>
+      </c>
+      <c r="I19" t="n">
+        <v>577</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +1063,23 @@
         <v>163.5001</v>
       </c>
       <c r="G20" t="n">
-        <v>-521970.9185</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>579</v>
+      </c>
+      <c r="I20" t="n">
+        <v>577</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1101,21 @@
         <v>482.353</v>
       </c>
       <c r="G21" t="n">
-        <v>-521488.5655</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="n">
+        <v>577</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1137,21 @@
         <v>392.4292</v>
       </c>
       <c r="G22" t="n">
-        <v>-521880.9947</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>577</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1173,21 @@
         <v>0.9</v>
       </c>
       <c r="G23" t="n">
-        <v>-521880.0947</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>577</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1209,21 @@
         <v>10</v>
       </c>
       <c r="G24" t="n">
-        <v>-521890.0947</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>577</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1245,21 @@
         <v>160.4822</v>
       </c>
       <c r="G25" t="n">
-        <v>-522050.5769</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>577</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1281,21 @@
         <v>222.84</v>
       </c>
       <c r="G26" t="n">
-        <v>-522050.5769</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>577</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1317,21 @@
         <v>2288.3005</v>
       </c>
       <c r="G27" t="n">
-        <v>-524338.8774</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>577</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1353,21 @@
         <v>336</v>
       </c>
       <c r="G28" t="n">
-        <v>-524002.8774</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>577</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1389,21 @@
         <v>452.5328</v>
       </c>
       <c r="G29" t="n">
-        <v>-523550.3446</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>577</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1425,21 @@
         <v>144</v>
       </c>
       <c r="G30" t="n">
-        <v>-523694.3446</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>577</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1461,21 @@
         <v>2390.831</v>
       </c>
       <c r="G31" t="n">
-        <v>-526085.1756</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>577</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1497,21 @@
         <v>729.4948000000001</v>
       </c>
       <c r="G32" t="n">
-        <v>-525355.6808</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>577</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1533,21 @@
         <v>2228.2933</v>
       </c>
       <c r="G33" t="n">
-        <v>-527583.9741</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>577</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1569,21 @@
         <v>1453.171</v>
       </c>
       <c r="G34" t="n">
-        <v>-526130.8031</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>577</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1605,21 @@
         <v>1188.3307</v>
       </c>
       <c r="G35" t="n">
-        <v>-524942.4724</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>577</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1641,21 @@
         <v>2.5</v>
       </c>
       <c r="G36" t="n">
-        <v>-524944.9724</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>577</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1677,21 @@
         <v>125.5</v>
       </c>
       <c r="G37" t="n">
-        <v>-525070.4724</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>577</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1713,21 @@
         <v>566.9016</v>
       </c>
       <c r="G38" t="n">
-        <v>-524503.5708</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>577</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1749,21 @@
         <v>558.0134</v>
       </c>
       <c r="G39" t="n">
-        <v>-523945.5574</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>577</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1785,21 @@
         <v>2825.3711</v>
       </c>
       <c r="G40" t="n">
-        <v>-526770.9285</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>577</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1821,21 @@
         <v>1373.473</v>
       </c>
       <c r="G41" t="n">
-        <v>-525397.4555</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>577</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1857,21 @@
         <v>1327.8132</v>
       </c>
       <c r="G42" t="n">
-        <v>-524069.6423000001</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>577</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1893,21 @@
         <v>971.1497000000001</v>
       </c>
       <c r="G43" t="n">
-        <v>-525040.792</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>577</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1929,23 @@
         <v>1893.2283</v>
       </c>
       <c r="G44" t="n">
-        <v>-523147.5637</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>577</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1.052192374350087</v>
+      </c>
       <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>1.001733102253033</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1967,15 @@
         <v>1628.5805</v>
       </c>
       <c r="G45" t="n">
-        <v>-523147.5637</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1997,15 @@
         <v>3295.4125</v>
       </c>
       <c r="G46" t="n">
-        <v>-519852.1512</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +2027,15 @@
         <v>2308.824</v>
       </c>
       <c r="G47" t="n">
-        <v>-522160.9752</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +2057,15 @@
         <v>1489.89</v>
       </c>
       <c r="G48" t="n">
-        <v>-522160.9752</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +2087,15 @@
         <v>395.8689</v>
       </c>
       <c r="G49" t="n">
-        <v>-522556.8441</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +2117,15 @@
         <v>100</v>
       </c>
       <c r="G50" t="n">
-        <v>-522656.8441</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +2147,15 @@
         <v>1413.0843</v>
       </c>
       <c r="G51" t="n">
-        <v>-524069.9284</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +2177,15 @@
         <v>679.3849</v>
       </c>
       <c r="G52" t="n">
-        <v>-523390.5435</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +2207,15 @@
         <v>51.353</v>
       </c>
       <c r="G53" t="n">
-        <v>-523441.8965</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2237,15 @@
         <v>277.1649</v>
       </c>
       <c r="G54" t="n">
-        <v>-523719.0614</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2267,15 @@
         <v>833.063</v>
       </c>
       <c r="G55" t="n">
-        <v>-522885.9984</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2297,15 @@
         <v>214</v>
       </c>
       <c r="G56" t="n">
-        <v>-523099.9984</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2327,15 @@
         <v>250.6332</v>
       </c>
       <c r="G57" t="n">
-        <v>-522849.3652</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2357,15 @@
         <v>185.4</v>
       </c>
       <c r="G58" t="n">
-        <v>-522849.3652</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2387,15 @@
         <v>273.134</v>
       </c>
       <c r="G59" t="n">
-        <v>-523122.4992</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2417,15 @@
         <v>415.2</v>
       </c>
       <c r="G60" t="n">
-        <v>-522707.2992</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2447,15 @@
         <v>1677.4283</v>
       </c>
       <c r="G61" t="n">
-        <v>-521029.8709</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2477,15 @@
         <v>364.6511</v>
       </c>
       <c r="G62" t="n">
-        <v>-520665.2198</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2507,15 @@
         <v>695.9967</v>
       </c>
       <c r="G63" t="n">
-        <v>-521361.2165</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2537,15 @@
         <v>962.0104</v>
       </c>
       <c r="G64" t="n">
-        <v>-520399.2061</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2567,15 @@
         <v>279.3787</v>
       </c>
       <c r="G65" t="n">
-        <v>-520678.5848</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,22 +2597,15 @@
         <v>50.1033</v>
       </c>
       <c r="G66" t="n">
-        <v>-520728.6881</v>
-      </c>
-      <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>598</v>
-      </c>
-      <c r="J66" t="n">
-        <v>598</v>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2597,26 +2627,15 @@
         <v>344.5552</v>
       </c>
       <c r="G67" t="n">
-        <v>-521073.2433</v>
-      </c>
-      <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>597</v>
-      </c>
-      <c r="J67" t="n">
-        <v>598</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2638,26 +2657,15 @@
         <v>783.1833</v>
       </c>
       <c r="G68" t="n">
-        <v>-521073.2433</v>
-      </c>
-      <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>596</v>
-      </c>
-      <c r="J68" t="n">
-        <v>598</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2679,22 +2687,15 @@
         <v>178.6078</v>
       </c>
       <c r="G69" t="n">
-        <v>-521073.2433</v>
-      </c>
-      <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>596</v>
-      </c>
-      <c r="J69" t="n">
-        <v>596</v>
-      </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2716,26 +2717,15 @@
         <v>244.6044</v>
       </c>
       <c r="G70" t="n">
-        <v>-521073.2433</v>
-      </c>
-      <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>596</v>
-      </c>
-      <c r="J70" t="n">
-        <v>596</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2757,26 +2747,15 @@
         <v>203.6836</v>
       </c>
       <c r="G71" t="n">
-        <v>-521073.2433</v>
-      </c>
-      <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>596</v>
-      </c>
-      <c r="J71" t="n">
-        <v>596</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2798,22 +2777,15 @@
         <v>572.83</v>
       </c>
       <c r="G72" t="n">
-        <v>-520500.4133</v>
-      </c>
-      <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>596</v>
-      </c>
-      <c r="J72" t="n">
-        <v>596</v>
-      </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2835,24 +2807,15 @@
         <v>307</v>
       </c>
       <c r="G73" t="n">
-        <v>-520193.4133</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>596</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2874,24 +2837,15 @@
         <v>307</v>
       </c>
       <c r="G74" t="n">
-        <v>-520500.4133</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>596</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2913,18 +2867,15 @@
         <v>2109.7314</v>
       </c>
       <c r="G75" t="n">
-        <v>-522610.1446999999</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2946,22 +2897,15 @@
         <v>1819.8922</v>
       </c>
       <c r="G76" t="n">
-        <v>-520790.2524999999</v>
-      </c>
-      <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>591</v>
-      </c>
-      <c r="J76" t="n">
-        <v>591</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2983,26 +2927,15 @@
         <v>893.1503</v>
       </c>
       <c r="G77" t="n">
-        <v>-520790.2524999999</v>
-      </c>
-      <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>594</v>
-      </c>
-      <c r="J77" t="n">
-        <v>591</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3024,26 +2957,15 @@
         <v>2153.7363</v>
       </c>
       <c r="G78" t="n">
-        <v>-518636.5162</v>
-      </c>
-      <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>594</v>
-      </c>
-      <c r="J78" t="n">
-        <v>591</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3065,26 +2987,15 @@
         <v>1177.0437</v>
       </c>
       <c r="G79" t="n">
-        <v>-519813.5598999999</v>
-      </c>
-      <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>595</v>
-      </c>
-      <c r="J79" t="n">
-        <v>591</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3106,26 +3017,15 @@
         <v>269</v>
       </c>
       <c r="G80" t="n">
-        <v>-519544.5598999999</v>
-      </c>
-      <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>591</v>
-      </c>
-      <c r="J80" t="n">
-        <v>591</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3147,24 +3047,15 @@
         <v>2870.72547093</v>
       </c>
       <c r="G81" t="n">
-        <v>-516673.8344290699</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>591</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3186,24 +3077,15 @@
         <v>308.8</v>
       </c>
       <c r="G82" t="n">
-        <v>-516982.6344290699</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>591</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3225,24 +3107,15 @@
         <v>67.3819</v>
       </c>
       <c r="G83" t="n">
-        <v>-517050.0163290699</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>591</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3264,24 +3137,15 @@
         <v>336.1544</v>
       </c>
       <c r="G84" t="n">
-        <v>-516713.8619290699</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>591</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3303,24 +3167,15 @@
         <v>712.3364</v>
       </c>
       <c r="G85" t="n">
-        <v>-517426.1983290699</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>591</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3342,24 +3197,15 @@
         <v>611.1716</v>
       </c>
       <c r="G86" t="n">
-        <v>-518037.3699290699</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>591</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3381,24 +3227,15 @@
         <v>275.0173</v>
       </c>
       <c r="G87" t="n">
-        <v>-518037.3699290699</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>591</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3420,24 +3257,15 @@
         <v>1110.183</v>
       </c>
       <c r="G88" t="n">
-        <v>-516927.1869290699</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>591</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3459,24 +3287,15 @@
         <v>117</v>
       </c>
       <c r="G89" t="n">
-        <v>-517044.1869290699</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>591</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3498,24 +3317,15 @@
         <v>94</v>
       </c>
       <c r="G90" t="n">
-        <v>-516950.1869290699</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>591</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3537,24 +3347,15 @@
         <v>1123.5067</v>
       </c>
       <c r="G91" t="n">
-        <v>-516950.1869290699</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>591</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3576,24 +3377,15 @@
         <v>1469.5068</v>
       </c>
       <c r="G92" t="n">
-        <v>-518419.6937290698</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>591</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3615,24 +3407,15 @@
         <v>63</v>
       </c>
       <c r="G93" t="n">
-        <v>-518419.6937290698</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>591</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3654,24 +3437,15 @@
         <v>930.183</v>
       </c>
       <c r="G94" t="n">
-        <v>-518419.6937290698</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>591</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3693,24 +3467,15 @@
         <v>170.5799</v>
       </c>
       <c r="G95" t="n">
-        <v>-518590.2736290699</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>591</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3732,24 +3497,15 @@
         <v>715.9999</v>
       </c>
       <c r="G96" t="n">
-        <v>-517874.2737290699</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>591</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3771,24 +3527,15 @@
         <v>508.7599</v>
       </c>
       <c r="G97" t="n">
-        <v>-517874.2737290699</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>591</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3810,24 +3557,15 @@
         <v>63</v>
       </c>
       <c r="G98" t="n">
-        <v>-517937.2737290699</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>591</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3849,24 +3587,15 @@
         <v>217.0562</v>
       </c>
       <c r="G99" t="n">
-        <v>-518154.3299290698</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>591</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3888,24 +3617,15 @@
         <v>93.12130000000001</v>
       </c>
       <c r="G100" t="n">
-        <v>-518061.2086290698</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>591</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3927,24 +3647,15 @@
         <v>333.0231</v>
       </c>
       <c r="G101" t="n">
-        <v>-517728.1855290699</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>591</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3966,24 +3677,15 @@
         <v>199</v>
       </c>
       <c r="G102" t="n">
-        <v>-517927.1855290699</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>591</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4005,24 +3707,15 @@
         <v>7194.1481</v>
       </c>
       <c r="G103" t="n">
-        <v>-510733.0374290699</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>591</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4044,24 +3737,15 @@
         <v>2524.81</v>
       </c>
       <c r="G104" t="n">
-        <v>-508208.2274290699</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>591</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4083,24 +3767,15 @@
         <v>205.9165</v>
       </c>
       <c r="G105" t="n">
-        <v>-508414.1439290699</v>
-      </c>
-      <c r="H105" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>591</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1.037301184433164</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4122,18 +3797,15 @@
         <v>83.7315</v>
       </c>
       <c r="G106" t="n">
-        <v>-508414.1439290699</v>
-      </c>
-      <c r="H106" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4155,18 +3827,15 @@
         <v>157</v>
       </c>
       <c r="G107" t="n">
-        <v>-508571.1439290699</v>
-      </c>
-      <c r="H107" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4188,18 +3857,15 @@
         <v>333.7315</v>
       </c>
       <c r="G108" t="n">
-        <v>-508237.4124290699</v>
-      </c>
-      <c r="H108" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4221,18 +3887,15 @@
         <v>68</v>
       </c>
       <c r="G109" t="n">
-        <v>-508169.4124290699</v>
-      </c>
-      <c r="H109" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4254,18 +3917,15 @@
         <v>42.5029</v>
       </c>
       <c r="G110" t="n">
-        <v>-508211.9153290699</v>
-      </c>
-      <c r="H110" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4287,18 +3947,15 @@
         <v>539.5</v>
       </c>
       <c r="G111" t="n">
-        <v>-508751.4153290699</v>
-      </c>
-      <c r="H111" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4320,18 +3977,15 @@
         <v>500</v>
       </c>
       <c r="G112" t="n">
-        <v>-509251.4153290699</v>
-      </c>
-      <c r="H112" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4353,18 +4007,15 @@
         <v>125</v>
       </c>
       <c r="G113" t="n">
-        <v>-509126.4153290699</v>
-      </c>
-      <c r="H113" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4386,18 +4037,15 @@
         <v>331.5203</v>
       </c>
       <c r="G114" t="n">
-        <v>-509457.9356290699</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4419,18 +4067,15 @@
         <v>73.28749999999999</v>
       </c>
       <c r="G115" t="n">
-        <v>-509384.6481290699</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4452,18 +4097,15 @@
         <v>1419.8391</v>
       </c>
       <c r="G116" t="n">
-        <v>-509384.6481290699</v>
-      </c>
-      <c r="H116" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4485,18 +4127,15 @@
         <v>742.0805</v>
       </c>
       <c r="G117" t="n">
-        <v>-508642.5676290699</v>
-      </c>
-      <c r="H117" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4518,18 +4157,15 @@
         <v>2</v>
       </c>
       <c r="G118" t="n">
-        <v>-508642.5676290699</v>
-      </c>
-      <c r="H118" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4551,18 +4187,15 @@
         <v>108.4917</v>
       </c>
       <c r="G119" t="n">
-        <v>-508751.0593290699</v>
-      </c>
-      <c r="H119" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4584,18 +4217,15 @@
         <v>58.858</v>
       </c>
       <c r="G120" t="n">
-        <v>-508751.0593290699</v>
-      </c>
-      <c r="H120" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4617,18 +4247,15 @@
         <v>10</v>
       </c>
       <c r="G121" t="n">
-        <v>-508751.0593290699</v>
-      </c>
-      <c r="H121" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4650,18 +4277,15 @@
         <v>34.11</v>
       </c>
       <c r="G122" t="n">
-        <v>-508751.0593290699</v>
-      </c>
-      <c r="H122" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4683,18 +4307,15 @@
         <v>74.0399</v>
       </c>
       <c r="G123" t="n">
-        <v>-508751.0593290699</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4716,18 +4337,15 @@
         <v>52</v>
       </c>
       <c r="G124" t="n">
-        <v>-508803.0593290699</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4749,18 +4367,15 @@
         <v>171.79</v>
       </c>
       <c r="G125" t="n">
-        <v>-508974.8493290699</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4782,18 +4397,15 @@
         <v>2024.0735</v>
       </c>
       <c r="G126" t="n">
-        <v>-506950.7758290699</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4815,18 +4427,15 @@
         <v>710</v>
       </c>
       <c r="G127" t="n">
-        <v>-507660.7758290699</v>
-      </c>
-      <c r="H127" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4848,18 +4457,15 @@
         <v>710</v>
       </c>
       <c r="G128" t="n">
-        <v>-508370.7758290699</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4881,18 +4487,15 @@
         <v>2946.8444</v>
       </c>
       <c r="G129" t="n">
-        <v>-511317.6202290699</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4914,18 +4517,15 @@
         <v>81.6993464</v>
       </c>
       <c r="G130" t="n">
-        <v>-511235.9208826699</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4947,18 +4547,15 @@
         <v>1706.5813</v>
       </c>
       <c r="G131" t="n">
-        <v>-512942.5021826699</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4980,18 +4577,15 @@
         <v>10</v>
       </c>
       <c r="G132" t="n">
-        <v>-512932.5021826699</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5013,18 +4607,15 @@
         <v>41.8765</v>
       </c>
       <c r="G133" t="n">
-        <v>-512974.37868267</v>
-      </c>
-      <c r="H133" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5046,18 +4637,15 @@
         <v>1</v>
       </c>
       <c r="G134" t="n">
-        <v>-512974.37868267</v>
-      </c>
-      <c r="H134" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5079,18 +4667,15 @@
         <v>115.804</v>
       </c>
       <c r="G135" t="n">
-        <v>-512858.5746826699</v>
-      </c>
-      <c r="H135" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5112,18 +4697,15 @@
         <v>574.2101</v>
       </c>
       <c r="G136" t="n">
-        <v>-512284.3645826699</v>
-      </c>
-      <c r="H136" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5145,18 +4727,15 @@
         <v>627.072</v>
       </c>
       <c r="G137" t="n">
-        <v>-512284.3645826699</v>
-      </c>
-      <c r="H137" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5178,18 +4757,15 @@
         <v>5</v>
       </c>
       <c r="G138" t="n">
-        <v>-512284.3645826699</v>
-      </c>
-      <c r="H138" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5211,18 +4787,15 @@
         <v>691.0486</v>
       </c>
       <c r="G139" t="n">
-        <v>-511593.3159826699</v>
-      </c>
-      <c r="H139" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5244,18 +4817,15 @@
         <v>601.4125</v>
       </c>
       <c r="G140" t="n">
-        <v>-511593.3159826699</v>
-      </c>
-      <c r="H140" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5277,18 +4847,15 @@
         <v>728.0867</v>
       </c>
       <c r="G141" t="n">
-        <v>-512321.4026826699</v>
-      </c>
-      <c r="H141" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5310,18 +4877,15 @@
         <v>80</v>
       </c>
       <c r="G142" t="n">
-        <v>-512321.4026826699</v>
-      </c>
-      <c r="H142" t="n">
         <v>2</v>
       </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5343,18 +4907,15 @@
         <v>910.6485</v>
       </c>
       <c r="G143" t="n">
-        <v>-511410.7541826699</v>
-      </c>
-      <c r="H143" t="n">
         <v>2</v>
       </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5376,18 +4937,15 @@
         <v>562</v>
       </c>
       <c r="G144" t="n">
-        <v>-511410.7541826699</v>
-      </c>
-      <c r="H144" t="n">
         <v>2</v>
       </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5409,18 +4967,15 @@
         <v>83.77330000000001</v>
       </c>
       <c r="G145" t="n">
-        <v>-511494.5274826699</v>
-      </c>
-      <c r="H145" t="n">
         <v>2</v>
       </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5442,18 +4997,15 @@
         <v>1123.0964</v>
       </c>
       <c r="G146" t="n">
-        <v>-512617.6238826699</v>
-      </c>
-      <c r="H146" t="n">
         <v>2</v>
       </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
